--- a/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
+++ b/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <r>
       <t>新光人壽保險股份有限公司</t>
@@ -1609,6 +1609,22 @@
     <t>資產分類
 法定備呆金額</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上年度業主權益</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3515,7 +3531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3765,11 +3781,111 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3809,105 +3925,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="288">
@@ -6956,8 +6981,8 @@
   </sheetPr>
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -6997,11 +7022,11 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -7015,39 +7040,39 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="103" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="114" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="116" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
@@ -7057,17 +7082,17 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="110"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
@@ -7099,7 +7124,7 @@
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="118" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -7113,11 +7138,11 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="124" t="e">
-        <f t="shared" ref="I6:J7" si="0">H6/$L$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="124" t="e">
+      <c r="I6" s="91" t="e">
+        <f t="shared" ref="I6:I7" si="0">H6/$L$7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="91" t="e">
         <f>I6/$L$6</f>
         <v>#DIV/0!</v>
       </c>
@@ -7133,7 +7158,7 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
@@ -7151,11 +7176,11 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="124" t="e">
+      <c r="I7" s="91" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="124" t="e">
+      <c r="J7" s="91" t="e">
         <f>I7/$L$6</f>
         <v>#DIV/0!</v>
       </c>
@@ -7171,7 +7196,7 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
@@ -7183,23 +7208,25 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="124" t="e">
+      <c r="I8" s="91" t="e">
         <f>H8/$L$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="124" t="e">
+      <c r="J8" s="91" t="e">
         <f t="shared" ref="I8:J69" si="2">I8/$L$6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="20"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="25" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1">
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
@@ -7211,11 +7238,11 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="124" t="e">
+      <c r="I9" s="91" t="e">
         <f t="shared" ref="I9:I68" si="3">H9/$L$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="124" t="e">
+      <c r="J9" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7226,7 +7253,7 @@
       <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="92"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
@@ -7238,11 +7265,11 @@
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="124" t="e">
+      <c r="I10" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="124" t="e">
+      <c r="J10" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7253,7 +7280,7 @@
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
@@ -7265,11 +7292,11 @@
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="124" t="e">
+      <c r="I11" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="124" t="e">
+      <c r="J11" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7280,7 +7307,7 @@
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7292,11 +7319,11 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="124" t="e">
+      <c r="I12" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="124" t="e">
+      <c r="J12" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7307,7 +7334,7 @@
       <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="92"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="32" t="s">
         <v>40</v>
       </c>
@@ -7328,11 +7355,11 @@
         <f>SUM(H6:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="124" t="e">
+      <c r="I13" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="124" t="e">
+      <c r="J13" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7343,25 +7370,25 @@
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="121" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126" t="e">
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="127"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="124" t="e">
+      <c r="I14" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="124" t="e">
+      <c r="J14" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7372,23 +7399,23 @@
       <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="128"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="126" t="e">
+      <c r="F15" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="124" t="e">
+      <c r="I15" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="124" t="e">
+      <c r="J15" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7399,23 +7426,23 @@
       <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="92"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126" t="e">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="129"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="124" t="e">
+      <c r="I16" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="124" t="e">
+      <c r="J16" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7426,23 +7453,23 @@
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="113"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126" t="e">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="129"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="124" t="e">
+      <c r="I17" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="124" t="e">
+      <c r="J17" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7452,7 +7479,7 @@
       <c r="A18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="113"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="37" t="s">
         <v>40</v>
       </c>
@@ -7464,20 +7491,20 @@
         <f>SUM(E14:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="126" t="e">
+      <c r="F18" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="129"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="30">
         <f>SUM(H14:H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="124" t="e">
+      <c r="I18" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="124" t="e">
+      <c r="J18" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7487,7 +7514,7 @@
       <c r="A19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="121" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -7495,17 +7522,17 @@
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="126" t="e">
+      <c r="F19" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="129"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="124" t="e">
+      <c r="I19" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="124" t="e">
+      <c r="J19" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7515,23 +7542,23 @@
       <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="92"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="126" t="e">
+      <c r="F20" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="129"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="124" t="e">
+      <c r="I20" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="124" t="e">
+      <c r="J20" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7541,23 +7568,23 @@
       <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="92"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="126" t="e">
+      <c r="F21" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="129"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="124" t="e">
+      <c r="I21" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="124" t="e">
+      <c r="J21" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7567,23 +7594,23 @@
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="92"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="126" t="e">
+      <c r="F22" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="129"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="124" t="e">
+      <c r="I22" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="124" t="e">
+      <c r="J22" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7593,7 +7620,7 @@
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="109" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -7607,20 +7634,20 @@
         <f>SUM(E19:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="126" t="e">
+      <c r="F23" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="129"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="30">
         <f>SUM(H19:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="124" t="e">
+      <c r="I23" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="124" t="e">
+      <c r="J23" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7630,23 +7657,23 @@
       <c r="A24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="126" t="e">
+      <c r="F24" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="129"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="124" t="e">
+      <c r="I24" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="124" t="e">
+      <c r="J24" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7656,7 +7683,7 @@
       <c r="A25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="109" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -7670,20 +7697,20 @@
         <f>SUM(E26:E30)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="126" t="e">
+      <c r="F25" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="129"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="30">
         <f>SUM(H26:H30)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="124" t="e">
+      <c r="I25" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="124" t="e">
+      <c r="J25" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7693,23 +7720,23 @@
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="123"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="30"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="126" t="e">
+      <c r="E26" s="97"/>
+      <c r="F26" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="129"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="39"/>
-      <c r="I26" s="124" t="e">
+      <c r="I26" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="124" t="e">
+      <c r="J26" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7719,23 +7746,23 @@
       <c r="A27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="123"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="126" t="e">
+      <c r="F27" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="129"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="124" t="e">
+      <c r="I27" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="124" t="e">
+      <c r="J27" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7745,23 +7772,23 @@
       <c r="A28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="123"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="126" t="e">
+      <c r="F28" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="129"/>
+      <c r="G28" s="96"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="124" t="e">
+      <c r="I28" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="124" t="e">
+      <c r="J28" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7771,23 +7798,23 @@
       <c r="A29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="123"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="126" t="e">
+      <c r="F29" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="129"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="124" t="e">
+      <c r="I29" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="124" t="e">
+      <c r="J29" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7797,23 +7824,23 @@
       <c r="A30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="123"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="126" t="e">
+      <c r="F30" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="129"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="124" t="e">
+      <c r="I30" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="124" t="e">
+      <c r="J30" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7823,7 +7850,7 @@
       <c r="A31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="123"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
@@ -7835,20 +7862,20 @@
         <f>SUM(E32:E36)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="126" t="e">
+      <c r="F31" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="129"/>
+      <c r="G31" s="96"/>
       <c r="H31" s="30">
         <f>SUM(H32:H36)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="124" t="e">
+      <c r="I31" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="124" t="e">
+      <c r="J31" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7858,23 +7885,23 @@
       <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="123"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="126" t="e">
+      <c r="F32" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="129"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="124" t="e">
+      <c r="I32" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="124" t="e">
+      <c r="J32" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7884,23 +7911,23 @@
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="123"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="126" t="e">
+      <c r="F33" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="129"/>
+      <c r="G33" s="96"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="124" t="e">
+      <c r="I33" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="124" t="e">
+      <c r="J33" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7911,23 +7938,23 @@
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="123"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="126" t="e">
+      <c r="F34" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="129"/>
+      <c r="G34" s="96"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="124" t="e">
+      <c r="I34" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="124" t="e">
+      <c r="J34" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7938,23 +7965,23 @@
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="123"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="126" t="e">
+      <c r="F35" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="129"/>
+      <c r="G35" s="96"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="124" t="e">
+      <c r="I35" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="124" t="e">
+      <c r="J35" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7965,23 +7992,23 @@
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="123"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="126" t="e">
+      <c r="F36" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="129"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="124" t="e">
+      <c r="I36" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="124" t="e">
+      <c r="J36" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -7992,7 +8019,7 @@
       <c r="A37" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="123"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
@@ -8004,20 +8031,20 @@
         <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="126" t="e">
+      <c r="F37" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="129"/>
+      <c r="G37" s="96"/>
       <c r="H37" s="30">
         <f>SUM(H38:H42)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="124" t="e">
+      <c r="I37" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="124" t="e">
+      <c r="J37" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8028,23 +8055,23 @@
       <c r="A38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="123"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="126" t="e">
+      <c r="F38" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="129"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="124" t="e">
+      <c r="I38" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="124" t="e">
+      <c r="J38" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8055,23 +8082,23 @@
       <c r="A39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="123"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="126" t="e">
+      <c r="F39" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="129"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="30"/>
-      <c r="I39" s="124" t="e">
+      <c r="I39" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="124" t="e">
+      <c r="J39" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8082,23 +8109,23 @@
       <c r="A40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="123"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="126" t="e">
+      <c r="F40" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="129"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="30"/>
-      <c r="I40" s="124" t="e">
+      <c r="I40" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="124" t="e">
+      <c r="J40" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8109,23 +8136,23 @@
       <c r="A41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="123"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="131"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="126" t="e">
+      <c r="F41" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="129"/>
+      <c r="G41" s="96"/>
       <c r="H41" s="30"/>
-      <c r="I41" s="124" t="e">
+      <c r="I41" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="124" t="e">
+      <c r="J41" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8136,23 +8163,23 @@
       <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="123"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="126" t="e">
+      <c r="F42" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="129"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="30"/>
-      <c r="I42" s="124" t="e">
+      <c r="I42" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="124" t="e">
+      <c r="J42" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8163,7 +8190,7 @@
       <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="123"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="26" t="s">
         <v>86</v>
       </c>
@@ -8175,20 +8202,20 @@
         <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="126" t="e">
+      <c r="F43" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="129"/>
+      <c r="G43" s="96"/>
       <c r="H43" s="30">
         <f>SUM(H44:H48)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="124" t="e">
+      <c r="I43" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="124" t="e">
+      <c r="J43" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8199,23 +8226,23 @@
       <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="123"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="126" t="e">
+      <c r="F44" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="129"/>
+      <c r="G44" s="96"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="124" t="e">
+      <c r="I44" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="124" t="e">
+      <c r="J44" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8226,23 +8253,23 @@
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="123"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="126" t="e">
+      <c r="F45" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="129"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="124" t="e">
+      <c r="I45" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="124" t="e">
+      <c r="J45" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8253,23 +8280,23 @@
       <c r="A46" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="123"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="126" t="e">
+      <c r="F46" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="129"/>
+      <c r="G46" s="96"/>
       <c r="H46" s="39"/>
-      <c r="I46" s="124" t="e">
+      <c r="I46" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="124" t="e">
+      <c r="J46" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8280,23 +8307,23 @@
       <c r="A47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="123"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="126" t="e">
+      <c r="F47" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="129"/>
+      <c r="G47" s="96"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="124" t="e">
+      <c r="I47" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="124" t="e">
+      <c r="J47" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8307,23 +8334,23 @@
       <c r="A48" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="123"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="126" t="e">
+      <c r="F48" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="129"/>
+      <c r="G48" s="96"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="124" t="e">
+      <c r="I48" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="124" t="e">
+      <c r="J48" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8334,7 +8361,7 @@
       <c r="A49" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="123"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="26" t="s">
         <v>34</v>
       </c>
@@ -8346,20 +8373,20 @@
         <f>SUM(E50:E54)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="126" t="e">
+      <c r="F49" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="129"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="30">
         <f>SUM(H50:H54)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="124" t="e">
+      <c r="I49" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="124" t="e">
+      <c r="J49" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8369,23 +8396,23 @@
       <c r="A50" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="123"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="126" t="e">
+      <c r="F50" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="129"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="30"/>
-      <c r="I50" s="124" t="e">
+      <c r="I50" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="124" t="e">
+      <c r="J50" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8395,23 +8422,23 @@
       <c r="A51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="123"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="126" t="e">
+      <c r="F51" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="129"/>
+      <c r="G51" s="96"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="124" t="e">
+      <c r="I51" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="124" t="e">
+      <c r="J51" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8421,23 +8448,23 @@
       <c r="A52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="123"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="126" t="e">
+      <c r="F52" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="129"/>
+      <c r="G52" s="96"/>
       <c r="H52" s="30"/>
-      <c r="I52" s="124" t="e">
+      <c r="I52" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="124" t="e">
+      <c r="J52" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8447,23 +8474,23 @@
       <c r="A53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="123"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="126" t="e">
+      <c r="F53" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="129"/>
+      <c r="G53" s="96"/>
       <c r="H53" s="30"/>
-      <c r="I53" s="124" t="e">
+      <c r="I53" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="124" t="e">
+      <c r="J53" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8473,23 +8500,23 @@
       <c r="A54" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="123"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="126" t="e">
+      <c r="F54" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="129"/>
+      <c r="G54" s="96"/>
       <c r="H54" s="30"/>
-      <c r="I54" s="124" t="e">
+      <c r="I54" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="124" t="e">
+      <c r="J54" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8499,7 +8526,7 @@
       <c r="A55" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="123"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="26" t="s">
         <v>36</v>
       </c>
@@ -8511,20 +8538,20 @@
         <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="126" t="e">
+      <c r="F55" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="129"/>
+      <c r="G55" s="96"/>
       <c r="H55" s="30">
         <f>SUM(H56:H60)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="124" t="e">
+      <c r="I55" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="124" t="e">
+      <c r="J55" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8534,23 +8561,23 @@
       <c r="A56" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="123"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="126" t="e">
+      <c r="F56" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G56" s="129"/>
+      <c r="G56" s="96"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="124" t="e">
+      <c r="I56" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="124" t="e">
+      <c r="J56" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8560,23 +8587,23 @@
       <c r="A57" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="123"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
-      <c r="F57" s="126" t="e">
+      <c r="F57" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G57" s="129"/>
+      <c r="G57" s="96"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="124" t="e">
+      <c r="I57" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="124" t="e">
+      <c r="J57" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8586,23 +8613,23 @@
       <c r="A58" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="123"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
-      <c r="F58" s="126" t="e">
+      <c r="F58" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="129"/>
+      <c r="G58" s="96"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="124" t="e">
+      <c r="I58" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="124" t="e">
+      <c r="J58" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8612,23 +8639,23 @@
       <c r="A59" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="123"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="126" t="e">
+      <c r="F59" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="129"/>
+      <c r="G59" s="96"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="124" t="e">
+      <c r="I59" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J59" s="124" t="e">
+      <c r="J59" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8638,23 +8665,23 @@
       <c r="A60" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="123"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="126" t="e">
+      <c r="F60" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="129"/>
+      <c r="G60" s="96"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="124" t="e">
+      <c r="I60" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J60" s="124" t="e">
+      <c r="J60" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8664,7 +8691,7 @@
       <c r="A61" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="123"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="32" t="s">
         <v>38</v>
       </c>
@@ -8676,20 +8703,20 @@
         <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="126" t="e">
+      <c r="F61" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="129"/>
+      <c r="G61" s="96"/>
       <c r="H61" s="30">
         <f>SUM(H62:H66)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="124" t="e">
+      <c r="I61" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J61" s="124" t="e">
+      <c r="J61" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8699,23 +8726,23 @@
       <c r="A62" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="123"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
-      <c r="F62" s="126" t="e">
+      <c r="F62" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="129"/>
+      <c r="G62" s="96"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="124" t="e">
+      <c r="I62" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J62" s="124" t="e">
+      <c r="J62" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8725,23 +8752,23 @@
       <c r="A63" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="123"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
-      <c r="F63" s="126" t="e">
+      <c r="F63" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="129"/>
+      <c r="G63" s="96"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="124" t="e">
+      <c r="I63" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J63" s="124" t="e">
+      <c r="J63" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8751,23 +8778,23 @@
       <c r="A64" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="123"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
-      <c r="F64" s="126" t="e">
+      <c r="F64" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="129"/>
+      <c r="G64" s="96"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="124" t="e">
+      <c r="I64" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J64" s="124" t="e">
+      <c r="J64" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8777,23 +8804,23 @@
       <c r="A65" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="123"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30"/>
-      <c r="F65" s="126" t="e">
+      <c r="F65" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="129"/>
+      <c r="G65" s="96"/>
       <c r="H65" s="21"/>
-      <c r="I65" s="124" t="e">
+      <c r="I65" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J65" s="124" t="e">
+      <c r="J65" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8809,23 +8836,23 @@
       <c r="A66" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="123"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="126" t="e">
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="129"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="124" t="e">
+      <c r="G66" s="96"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="91" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J66" s="124" t="e">
+      <c r="J66" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8841,10 +8868,10 @@
       <c r="A67" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="117"/>
+      <c r="C67" s="105"/>
       <c r="D67" s="30">
         <f>D61+D55+D23</f>
         <v>0</v>
@@ -8853,20 +8880,20 @@
         <f>E61+E55+E23</f>
         <v>0</v>
       </c>
-      <c r="F67" s="126" t="e">
+      <c r="F67" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="133"/>
+      <c r="G67" s="100"/>
       <c r="H67" s="30">
         <f>H61+H55+H23</f>
         <v>0</v>
       </c>
-      <c r="I67" s="134" t="e">
+      <c r="I67" s="101" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J67" s="124" t="e">
+      <c r="J67" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8882,23 +8909,23 @@
       <c r="A68" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="116" t="s">
+      <c r="B68" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="117"/>
+      <c r="C68" s="105"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
-      <c r="F68" s="126" t="e">
+      <c r="F68" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="133"/>
+      <c r="G68" s="100"/>
       <c r="H68" s="30"/>
-      <c r="I68" s="134" t="e">
+      <c r="I68" s="101" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J68" s="124" t="e">
+      <c r="J68" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8914,10 +8941,10 @@
       <c r="A69" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="117"/>
+      <c r="C69" s="105"/>
       <c r="D69" s="30">
         <f>$D$25+$D$31+$D$37+$D$43+$D$49</f>
         <v>0</v>
@@ -8926,20 +8953,20 @@
         <f>$E$25+$E$31+$E$37+$E$43+$E$49</f>
         <v>0</v>
       </c>
-      <c r="F69" s="126" t="e">
+      <c r="F69" s="93" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="133"/>
+      <c r="G69" s="100"/>
       <c r="H69" s="30">
         <f>$H$25+$H$31+$H$37+$H$43+$H$49</f>
         <v>0</v>
       </c>
-      <c r="I69" s="134" t="e">
+      <c r="I69" s="101" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J69" s="124" t="e">
+      <c r="J69" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -8955,17 +8982,17 @@
       <c r="A70" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="117"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="119"/>
-      <c r="I70" s="119"/>
-      <c r="J70" s="120"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="138"/>
+      <c r="F70" s="138"/>
+      <c r="G70" s="138"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="138"/>
+      <c r="J70" s="139"/>
       <c r="K70" s="18"/>
       <c r="L70" s="45"/>
       <c r="M70" s="42"/>
@@ -8978,17 +9005,17 @@
       <c r="A71" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="116" t="s">
+      <c r="B71" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="117"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="119"/>
-      <c r="J71" s="120"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="138"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="138"/>
+      <c r="J71" s="139"/>
       <c r="K71" s="18"/>
       <c r="L71" s="46"/>
       <c r="M71" s="44"/>
@@ -9001,20 +9028,20 @@
       <c r="A72" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="116" t="s">
+      <c r="B72" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="117"/>
-      <c r="D72" s="118" t="e">
+      <c r="C72" s="105"/>
+      <c r="D72" s="106" t="e">
         <f>D70/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="119"/>
-      <c r="I72" s="119"/>
-      <c r="J72" s="120"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="108"/>
       <c r="K72" s="18"/>
       <c r="L72" s="44"/>
       <c r="M72" s="42"/>
@@ -9027,20 +9054,20 @@
       <c r="A73" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="118" t="e">
+      <c r="C73" s="105"/>
+      <c r="D73" s="106" t="e">
         <f>D71/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="119"/>
-      <c r="J73" s="120"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="108"/>
       <c r="K73" s="18"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -9053,20 +9080,20 @@
       <c r="A74" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="116" t="s">
+      <c r="B74" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="117"/>
-      <c r="D74" s="118" t="e">
+      <c r="C74" s="105"/>
+      <c r="D74" s="106" t="e">
         <f>(D70+D71)/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="119"/>
-      <c r="F74" s="119"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="119"/>
-      <c r="I74" s="119"/>
-      <c r="J74" s="120"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="108"/>
       <c r="K74" s="18"/>
       <c r="L74" s="42"/>
       <c r="M74" s="7"/>
@@ -9079,20 +9106,20 @@
       <c r="A75" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="116" t="s">
+      <c r="B75" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="117"/>
-      <c r="D75" s="118" t="e">
+      <c r="C75" s="105"/>
+      <c r="D75" s="106" t="e">
         <f>D70/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="119"/>
-      <c r="J75" s="120"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="108"/>
       <c r="K75" s="18"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -9105,20 +9132,20 @@
       <c r="A76" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="116" t="s">
+      <c r="B76" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="117"/>
-      <c r="D76" s="118" t="e">
+      <c r="C76" s="105"/>
+      <c r="D76" s="106" t="e">
         <f>D71/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="119"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="120"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="108"/>
       <c r="K76" s="18"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -9131,20 +9158,20 @@
       <c r="A77" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="116" t="s">
+      <c r="B77" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="117"/>
-      <c r="D77" s="118" t="e">
+      <c r="C77" s="105"/>
+      <c r="D77" s="106" t="e">
         <f>(F70+F71)/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="119"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="119"/>
-      <c r="J77" s="120"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="108"/>
       <c r="K77" s="18"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -9227,7 +9254,7 @@
       <c r="J82" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="K82" s="136" t="s">
+      <c r="K82" s="103" t="s">
         <v>148</v>
       </c>
       <c r="L82" s="58"/>
@@ -9459,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="73">
-        <f t="shared" ref="D88:J88" si="5">SUM(D83:D87)</f>
+        <f t="shared" ref="D88:I88" si="5">SUM(D83:D87)</f>
         <v>0</v>
       </c>
       <c r="E88" s="73">
@@ -9482,7 +9509,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J88" s="135">
+      <c r="J88" s="102">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9586,14 +9613,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B23:B24"/>
@@ -9607,18 +9638,14 @@
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:J72"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
+++ b/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3821,6 +3821,83 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3847,83 +3924,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -6981,8 +6981,8 @@
   </sheetPr>
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:J71"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -7022,11 +7022,11 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -7040,39 +7040,39 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="135" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="123" t="s">
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="122" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="128"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
@@ -7082,17 +7082,17 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="117"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="123"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="124" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -7158,7 +7158,7 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="120"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="120"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="120"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="32" t="s">
         <v>40</v>
       </c>
@@ -7370,7 +7370,7 @@
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="104" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -7399,7 +7399,7 @@
       <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="120"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="26" t="s">
         <v>47</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="122"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="37" t="s">
         <v>49</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="A18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="122"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="37" t="s">
         <v>40</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="A19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="104" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -7542,7 +7542,7 @@
       <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="26" t="s">
         <v>45</v>
       </c>
@@ -7568,7 +7568,7 @@
       <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="120"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="26" t="s">
         <v>47</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="120"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="37" t="s">
         <v>49</v>
       </c>
@@ -7620,7 +7620,7 @@
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="134" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -7657,7 +7657,7 @@
       <c r="A24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="37" t="s">
         <v>60</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="A25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="134" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -7720,7 +7720,7 @@
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="111"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="38" t="s">
         <v>64</v>
       </c>
@@ -7746,7 +7746,7 @@
       <c r="A27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="111"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="38" t="s">
         <v>66</v>
       </c>
@@ -7772,7 +7772,7 @@
       <c r="A28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="38" t="s">
         <v>68</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="A29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="38" t="s">
         <v>70</v>
       </c>
@@ -7824,7 +7824,7 @@
       <c r="A30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="111"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="38" t="s">
         <v>72</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="A31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="111"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="38" t="s">
         <v>64</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="111"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="38" t="s">
         <v>66</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="111"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="38" t="s">
         <v>68</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="111"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="38" t="s">
         <v>70</v>
       </c>
@@ -7992,7 +7992,7 @@
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="38" t="s">
         <v>72</v>
       </c>
@@ -8019,7 +8019,7 @@
       <c r="A37" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
@@ -8055,7 +8055,7 @@
       <c r="A38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="111"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="38" t="s">
         <v>64</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="A39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="38" t="s">
         <v>66</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="A40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="111"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="38" t="s">
         <v>68</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="A41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="38" t="s">
         <v>70</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="111"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="38" t="s">
         <v>72</v>
       </c>
@@ -8190,7 +8190,7 @@
       <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="26" t="s">
         <v>86</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="38" t="s">
         <v>64</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="111"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="38" t="s">
         <v>66</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="A46" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="111"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="38" t="s">
         <v>68</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="A47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="111"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="38" t="s">
         <v>70</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="A48" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="136"/>
       <c r="C48" s="38" t="s">
         <v>72</v>
       </c>
@@ -8361,7 +8361,7 @@
       <c r="A49" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="26" t="s">
         <v>34</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="A50" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="111"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="38" t="s">
         <v>64</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="A51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="38" t="s">
         <v>66</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="A52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="111"/>
+      <c r="B52" s="136"/>
       <c r="C52" s="38" t="s">
         <v>96</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="A53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="111"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="38" t="s">
         <v>70</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="A54" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="111"/>
+      <c r="B54" s="136"/>
       <c r="C54" s="38" t="s">
         <v>72</v>
       </c>
@@ -8526,7 +8526,7 @@
       <c r="A55" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="111"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="26" t="s">
         <v>36</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="A56" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="111"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="38" t="s">
         <v>64</v>
       </c>
@@ -8587,7 +8587,7 @@
       <c r="A57" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="111"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="38" t="s">
         <v>66</v>
       </c>
@@ -8613,7 +8613,7 @@
       <c r="A58" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="111"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="38" t="s">
         <v>68</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="A59" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="111"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="38" t="s">
         <v>70</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="A60" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="136"/>
       <c r="C60" s="38" t="s">
         <v>72</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="A61" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="111"/>
+      <c r="B61" s="136"/>
       <c r="C61" s="32" t="s">
         <v>38</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="A62" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="111"/>
+      <c r="B62" s="136"/>
       <c r="C62" s="38" t="s">
         <v>64</v>
       </c>
@@ -8752,7 +8752,7 @@
       <c r="A63" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="111"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="38" t="s">
         <v>66</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="A64" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="111"/>
+      <c r="B64" s="136"/>
       <c r="C64" s="38" t="s">
         <v>68</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="A65" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="111"/>
+      <c r="B65" s="136"/>
       <c r="C65" s="38" t="s">
         <v>70</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="A66" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="111"/>
+      <c r="B66" s="136"/>
       <c r="C66" s="38" t="s">
         <v>72</v>
       </c>
@@ -8868,10 +8868,10 @@
       <c r="A67" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="105"/>
+      <c r="C67" s="130"/>
       <c r="D67" s="30">
         <f>D61+D55+D23</f>
         <v>0</v>
@@ -8909,10 +8909,10 @@
       <c r="A68" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="105"/>
+      <c r="C68" s="130"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="93" t="e">
@@ -8941,10 +8941,10 @@
       <c r="A69" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="105"/>
+      <c r="C69" s="130"/>
       <c r="D69" s="30">
         <f>$D$25+$D$31+$D$37+$D$43+$D$49</f>
         <v>0</v>
@@ -8982,10 +8982,10 @@
       <c r="A70" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="105"/>
+      <c r="C70" s="130"/>
       <c r="D70" s="137"/>
       <c r="E70" s="138"/>
       <c r="F70" s="138"/>
@@ -9005,10 +9005,10 @@
       <c r="A71" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="104" t="s">
+      <c r="B71" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="105"/>
+      <c r="C71" s="130"/>
       <c r="D71" s="137"/>
       <c r="E71" s="138"/>
       <c r="F71" s="138"/>
@@ -9028,20 +9028,20 @@
       <c r="A72" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="104" t="s">
+      <c r="B72" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="105"/>
-      <c r="D72" s="106" t="e">
+      <c r="C72" s="130"/>
+      <c r="D72" s="131" t="e">
         <f>D70/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="107"/>
-      <c r="J72" s="108"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="132"/>
+      <c r="G72" s="132"/>
+      <c r="H72" s="132"/>
+      <c r="I72" s="132"/>
+      <c r="J72" s="133"/>
       <c r="K72" s="18"/>
       <c r="L72" s="44"/>
       <c r="M72" s="42"/>
@@ -9054,20 +9054,20 @@
       <c r="A73" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="104" t="s">
+      <c r="B73" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="106" t="e">
+      <c r="C73" s="130"/>
+      <c r="D73" s="131" t="e">
         <f>D71/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="108"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="132"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="132"/>
+      <c r="J73" s="133"/>
       <c r="K73" s="18"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -9080,20 +9080,20 @@
       <c r="A74" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="104" t="s">
+      <c r="B74" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="106" t="e">
+      <c r="C74" s="130"/>
+      <c r="D74" s="131" t="e">
         <f>(D70+D71)/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="108"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="133"/>
       <c r="K74" s="18"/>
       <c r="L74" s="42"/>
       <c r="M74" s="7"/>
@@ -9106,20 +9106,20 @@
       <c r="A75" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="105"/>
-      <c r="D75" s="106" t="e">
+      <c r="C75" s="130"/>
+      <c r="D75" s="131" t="e">
         <f>D70/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="108"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="132"/>
+      <c r="G75" s="132"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="133"/>
       <c r="K75" s="18"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -9132,20 +9132,20 @@
       <c r="A76" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="104" t="s">
+      <c r="B76" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106" t="e">
+      <c r="C76" s="130"/>
+      <c r="D76" s="131" t="e">
         <f>D71/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="107"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="107"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="107"/>
-      <c r="J76" s="108"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="133"/>
       <c r="K76" s="18"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -9158,20 +9158,20 @@
       <c r="A77" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106" t="e">
+      <c r="C77" s="130"/>
+      <c r="D77" s="131" t="e">
         <f>(F70+F71)/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="108"/>
+      <c r="E77" s="132"/>
+      <c r="F77" s="132"/>
+      <c r="G77" s="132"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="133"/>
       <c r="K77" s="18"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -9273,15 +9273,19 @@
         <v>0</v>
       </c>
       <c r="D83" s="61">
+        <f>H32*0.5%</f>
         <v>0</v>
       </c>
       <c r="E83" s="61">
+        <f>H38*0.5%</f>
         <v>0</v>
       </c>
       <c r="F83" s="61">
+        <f>H44*0.5%</f>
         <v>0</v>
       </c>
       <c r="G83" s="61">
+        <f>H50*0.5%</f>
         <v>0</v>
       </c>
       <c r="H83" s="62">
@@ -9316,16 +9320,20 @@
       <c r="C84" s="67">
         <v>0</v>
       </c>
-      <c r="D84" s="67">
+      <c r="D84" s="61">
+        <f>H33*2%</f>
         <v>0</v>
       </c>
       <c r="E84" s="61">
+        <f>H39*2%</f>
         <v>0</v>
       </c>
       <c r="F84" s="61">
+        <f>H45*2%</f>
         <v>0</v>
       </c>
       <c r="G84" s="61">
+        <f>H51*2%</f>
         <v>0</v>
       </c>
       <c r="H84" s="62">
@@ -9358,16 +9366,20 @@
       <c r="C85" s="67">
         <v>0</v>
       </c>
-      <c r="D85" s="67">
+      <c r="D85" s="61">
+        <f>H34*10%</f>
         <v>0</v>
       </c>
       <c r="E85" s="61">
+        <f t="shared" ref="E84:F87" si="5">H40*10%</f>
         <v>0</v>
       </c>
       <c r="F85" s="61">
+        <f>H46*10%</f>
         <v>0</v>
       </c>
       <c r="G85" s="61">
+        <f>H52*10%</f>
         <v>0</v>
       </c>
       <c r="H85" s="62">
@@ -9401,15 +9413,19 @@
         <v>0</v>
       </c>
       <c r="D86" s="61">
+        <f>H35*50%</f>
         <v>0</v>
       </c>
       <c r="E86" s="61">
+        <f>H41*50%</f>
         <v>0</v>
       </c>
       <c r="F86" s="61">
+        <f>H47*50%</f>
         <v>0</v>
       </c>
       <c r="G86" s="61">
+        <f>H53*50%</f>
         <v>0</v>
       </c>
       <c r="H86" s="62">
@@ -9443,15 +9459,19 @@
         <v>0</v>
       </c>
       <c r="D87" s="61">
+        <f>H36*100%</f>
         <v>0</v>
       </c>
       <c r="E87" s="61">
+        <f>H42*100%</f>
         <v>0</v>
       </c>
       <c r="F87" s="61">
+        <f>H48*100%</f>
         <v>0</v>
       </c>
       <c r="G87" s="61">
+        <f>H54*100%</f>
         <v>0</v>
       </c>
       <c r="H87" s="62">
@@ -9486,27 +9506,27 @@
         <v>0</v>
       </c>
       <c r="D88" s="73">
-        <f t="shared" ref="D88:I88" si="5">SUM(D83:D87)</f>
+        <f>SUM(D83:D87)</f>
         <v>0</v>
       </c>
       <c r="E88" s="73">
-        <f t="shared" si="5"/>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="F88" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D88:I88" si="6">SUM(F83:F87)</f>
         <v>0</v>
       </c>
       <c r="G88" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H88" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I88" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J88" s="102">
@@ -9613,18 +9633,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B23:B24"/>
@@ -9638,14 +9654,18 @@
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:J72"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
+++ b/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="340" windowWidth="18070" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14420" windowHeight="6110"/>
   </bookViews>
   <sheets>
     <sheet name="表14-2" sheetId="1" r:id="rId1"/>
+    <sheet name="A142放款餘額彙總表" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -23,9 +23,30 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_X" hidden="1">'[1]5DAYRPT '!#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="A">[2]不動產!$A$6</definedName>
     <definedName name="aaa">[3]Sheet2!$A$6</definedName>
@@ -37,6 +58,7 @@
     <definedName name="cc">#REF!</definedName>
     <definedName name="CP">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="dfg">'[5]表02(負債業主權益)'!$A$52</definedName>
     <definedName name="DWP">#REF!</definedName>
@@ -86,7 +108,30 @@
     <definedName name="mh">#REF!</definedName>
     <definedName name="netprem_written">[3]Sheet2!#REF!</definedName>
     <definedName name="NWP">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">A142放款餘額彙總表!$B$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表14-2'!$A$1:$K$92</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">1</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">1</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="sencount" hidden="1">3</definedName>
     <definedName name="SHT040BR1">#REF!</definedName>
     <definedName name="SHT040BR2">#REF!</definedName>
@@ -155,12 +200,14 @@
     <definedName name="SHT071TR9">#REF!</definedName>
     <definedName name="SHT080BR1">#REF!</definedName>
     <definedName name="SHT080TR1">#REF!</definedName>
+    <definedName name="SHT100TR8" localSheetId="1">[10]表10!$G$44</definedName>
     <definedName name="SHT100TR8">[5]表10!$G$38</definedName>
     <definedName name="SHT151BR1">#REF!</definedName>
     <definedName name="SHT151TR1">#REF!</definedName>
     <definedName name="sht151tr2">'[5]表15(合併列示及總計)'!$E$7:$E$11</definedName>
     <definedName name="TextRefCopyRangeCount" hidden="1">46</definedName>
     <definedName name="weight_rate">#REF!</definedName>
+    <definedName name="新" localSheetId="1">#REF!</definedName>
     <definedName name="新">#REF!</definedName>
     <definedName name="總體法規稽核結論">#REF!</definedName>
     <definedName name="總體數學勾稽結論">#REF!</definedName>
@@ -170,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="196">
   <si>
     <r>
       <t>新光人壽保險股份有限公司</t>
@@ -1626,12 +1673,407 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>協理：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>經理：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦人：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放款餘額之本金包含折溢價金額。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國外：以外幣放款或國際聯貸。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未列入逾期應予評估放款：包括逾期時間雖尚未達到逾期放款標準，但授信戶已經發生積欠本金或利息的放款；另外，協議分期償還放款雖符合一定條件免予列報逾期放款，仍應列入應予評估放款，不得視為正常之放款。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>逾期：指積欠本金或利息超過清償期三個月，或雖未超過三個月，惟已向主、從債務人訴追或處分擔保品者。協議分期償還放款符合一定條件，並依協議條件履行達六個月以上，且協議利率不低於原承作利率或保險業新承作同類風險放款之利率者，得免予列報逾期放款。
+  但於免列報期間再發生未依約清償超過三個月者，仍應予列報。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放款種類：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>銀行保證放款，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>動產擔保放款，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不動產抵押放款，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有價證券質押放款，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>E.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>壽險貸款，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>墊繳保費，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>Z.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>其他。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>本表填報定義如下：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案運用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註
+(18)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFRS 9預期損失增提金額
+(17)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>備抵損失Ⅴ
+(16)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>備抵損失Ⅳ
+(15)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>備抵損失Ⅲ
+(14)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>備抵損失Ⅱ
+(13)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>備抵損失I
+(12)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回無望Ⅴ
+(11)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回困難Ⅳ
+(10)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>可望收回Ⅲ
+(9)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>應予注意Ⅱ
+(8)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常放款I
+(7)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>未列入逾期應予評估放款
+(6)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期放款
+(5)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為專案運用公共
+及社會福利事業投資
+(4)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有資產幣別
+(3)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>國別
+(2)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款種類
+(1)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：新台幣元、%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A042放款餘額彙總表</t>
+  </si>
+  <si>
+    <t>報表名稱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>機密等級：密</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光人壽保險股份有限公司</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名稱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>申報年月</t>
+  </si>
+  <si>
+    <t>報表種類</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>年報</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="20">
+  <numFmts count="22">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1652,8 +2094,10 @@
     <numFmt numFmtId="190" formatCode="&quot;Yes&quot;;&quot;Yes&quot;;&quot;No&quot;"/>
     <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="193" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="194" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="73">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2136,6 +2580,17 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -3531,7 +3986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3821,11 +4276,80 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3865,74 +4389,145 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="21" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="288">
@@ -4266,6 +4861,17 @@
       <sheetName val="表30-15"/>
       <sheetName val="表05-1"/>
       <sheetName val="目錄"/>
+      <sheetName val="表03"/>
+      <sheetName val="Q08交易明細"/>
+      <sheetName val="表30-13-1"/>
+      <sheetName val="表07(總計)"/>
+      <sheetName val="表06"/>
+      <sheetName val="封面"/>
+      <sheetName val="03ws"/>
+      <sheetName val="非認許A"/>
+      <sheetName val="備供累計"/>
+      <sheetName val="Reserve"/>
+      <sheetName val="工作表2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -4292,6 +4898,124 @@
       <sheetData sheetId="21" refreshError="1"/>
       <sheetData sheetId="22" refreshError="1"/>
       <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="封面"/>
+      <sheetName val="公司基本資料"/>
+      <sheetName val="公司動態基本資料"/>
+      <sheetName val="表01"/>
+      <sheetName val="表02(資產)"/>
+      <sheetName val="表02(資產附表)"/>
+      <sheetName val="表02(負債業主權益)"/>
+      <sheetName val="表03"/>
+      <sheetName val="表04"/>
+      <sheetName val="表05(個人契約)"/>
+      <sheetName val="表05(團體契約)"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="表06"/>
+      <sheetName val="表07(個人契約)"/>
+      <sheetName val="表07(團體契約)"/>
+      <sheetName val="表08"/>
+      <sheetName val="表09"/>
+      <sheetName val="表10"/>
+      <sheetName val="表11"/>
+      <sheetName val="表11(總計)"/>
+      <sheetName val="表12"/>
+      <sheetName val="表13"/>
+      <sheetName val="表13(總計)"/>
+      <sheetName val="表14"/>
+      <sheetName val="表14(總計)"/>
+      <sheetName val="表15"/>
+      <sheetName val="表15(合併列示及總計)"/>
+      <sheetName val="表16"/>
+      <sheetName val="表16(總計)"/>
+      <sheetName val="表17"/>
+      <sheetName val="表17(總計)"/>
+      <sheetName val="表18"/>
+      <sheetName val="表18(總計)"/>
+      <sheetName val="表19"/>
+      <sheetName val="表19-1"/>
+      <sheetName val="表20"/>
+      <sheetName val="表20(總計)"/>
+      <sheetName val="表21"/>
+      <sheetName val="格式檢查"/>
+      <sheetName val="數學勾稽"/>
+      <sheetName val="轉檔資訊"/>
+      <sheetName val="適法性稽核"/>
+      <sheetName val="合理性稽核"/>
+      <sheetName val="引申變數"/>
+      <sheetName val="代碼資料"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
+        <row r="44">
+          <cell r="G44">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6689,6 +7413,21 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="A042填報說明"/>
+      <sheetName val="A042放款餘額彙總表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -6982,7 +7721,7 @@
   <dimension ref="A1:Y116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -7022,11 +7761,11 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -7040,39 +7779,39 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="116" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="127" t="s">
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="119" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
@@ -7082,17 +7821,17 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="123"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
@@ -7124,7 +7863,7 @@
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="121" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -7158,7 +7897,7 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="125"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
@@ -7196,7 +7935,7 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
@@ -7226,7 +7965,7 @@
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
@@ -7253,7 +7992,7 @@
       <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
@@ -7280,7 +8019,7 @@
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
@@ -7307,7 +8046,7 @@
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="32" t="s">
         <v>38</v>
       </c>
@@ -7334,7 +8073,7 @@
       <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="32" t="s">
         <v>40</v>
       </c>
@@ -7370,7 +8109,7 @@
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="124" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -7399,7 +8138,7 @@
       <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
@@ -7426,7 +8165,7 @@
       <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="26" t="s">
         <v>47</v>
       </c>
@@ -7453,7 +8192,7 @@
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="37" t="s">
         <v>49</v>
       </c>
@@ -7479,7 +8218,7 @@
       <c r="A18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="126"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="37" t="s">
         <v>40</v>
       </c>
@@ -7514,7 +8253,7 @@
       <c r="A19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="124" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -7542,7 +8281,7 @@
       <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="26" t="s">
         <v>45</v>
       </c>
@@ -7568,7 +8307,7 @@
       <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="105"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="26" t="s">
         <v>47</v>
       </c>
@@ -7594,7 +8333,7 @@
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="37" t="s">
         <v>49</v>
       </c>
@@ -7620,7 +8359,7 @@
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="109" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -7657,7 +8396,7 @@
       <c r="A24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="135"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="37" t="s">
         <v>60</v>
       </c>
@@ -7683,7 +8422,7 @@
       <c r="A25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="109" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -7720,7 +8459,7 @@
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="38" t="s">
         <v>64</v>
       </c>
@@ -7746,7 +8485,7 @@
       <c r="A27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="38" t="s">
         <v>66</v>
       </c>
@@ -7772,7 +8511,7 @@
       <c r="A28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="136"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="38" t="s">
         <v>68</v>
       </c>
@@ -7798,7 +8537,7 @@
       <c r="A29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="38" t="s">
         <v>70</v>
       </c>
@@ -7824,7 +8563,7 @@
       <c r="A30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="136"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="38" t="s">
         <v>72</v>
       </c>
@@ -7850,7 +8589,7 @@
       <c r="A31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="136"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
@@ -7885,7 +8624,7 @@
       <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="136"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="38" t="s">
         <v>64</v>
       </c>
@@ -7911,7 +8650,7 @@
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="136"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="38" t="s">
         <v>66</v>
       </c>
@@ -7938,7 +8677,7 @@
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="136"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="38" t="s">
         <v>68</v>
       </c>
@@ -7965,7 +8704,7 @@
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="136"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="38" t="s">
         <v>70</v>
       </c>
@@ -7992,7 +8731,7 @@
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="136"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="38" t="s">
         <v>72</v>
       </c>
@@ -8019,7 +8758,7 @@
       <c r="A37" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="136"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
@@ -8055,7 +8794,7 @@
       <c r="A38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="136"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="38" t="s">
         <v>64</v>
       </c>
@@ -8082,7 +8821,7 @@
       <c r="A39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="136"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="38" t="s">
         <v>66</v>
       </c>
@@ -8109,7 +8848,7 @@
       <c r="A40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="136"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="38" t="s">
         <v>68</v>
       </c>
@@ -8136,7 +8875,7 @@
       <c r="A41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="136"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="38" t="s">
         <v>70</v>
       </c>
@@ -8163,7 +8902,7 @@
       <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="136"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="38" t="s">
         <v>72</v>
       </c>
@@ -8190,7 +8929,7 @@
       <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="136"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="26" t="s">
         <v>86</v>
       </c>
@@ -8226,7 +8965,7 @@
       <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="136"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="38" t="s">
         <v>64</v>
       </c>
@@ -8253,7 +8992,7 @@
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="136"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="38" t="s">
         <v>66</v>
       </c>
@@ -8280,7 +9019,7 @@
       <c r="A46" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="136"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="38" t="s">
         <v>68</v>
       </c>
@@ -8307,7 +9046,7 @@
       <c r="A47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="136"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="38" t="s">
         <v>70</v>
       </c>
@@ -8334,7 +9073,7 @@
       <c r="A48" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="136"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="38" t="s">
         <v>72</v>
       </c>
@@ -8361,7 +9100,7 @@
       <c r="A49" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="136"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="26" t="s">
         <v>34</v>
       </c>
@@ -8396,7 +9135,7 @@
       <c r="A50" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="136"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="38" t="s">
         <v>64</v>
       </c>
@@ -8422,7 +9161,7 @@
       <c r="A51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="136"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="38" t="s">
         <v>66</v>
       </c>
@@ -8448,7 +9187,7 @@
       <c r="A52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="136"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="38" t="s">
         <v>96</v>
       </c>
@@ -8474,7 +9213,7 @@
       <c r="A53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="136"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="38" t="s">
         <v>70</v>
       </c>
@@ -8500,7 +9239,7 @@
       <c r="A54" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="136"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="38" t="s">
         <v>72</v>
       </c>
@@ -8526,7 +9265,7 @@
       <c r="A55" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="136"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="26" t="s">
         <v>36</v>
       </c>
@@ -8561,7 +9300,7 @@
       <c r="A56" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="136"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="38" t="s">
         <v>64</v>
       </c>
@@ -8587,7 +9326,7 @@
       <c r="A57" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="136"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="38" t="s">
         <v>66</v>
       </c>
@@ -8613,7 +9352,7 @@
       <c r="A58" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="136"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="38" t="s">
         <v>68</v>
       </c>
@@ -8639,7 +9378,7 @@
       <c r="A59" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="136"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="38" t="s">
         <v>70</v>
       </c>
@@ -8665,7 +9404,7 @@
       <c r="A60" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="136"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="38" t="s">
         <v>72</v>
       </c>
@@ -8691,7 +9430,7 @@
       <c r="A61" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="136"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="32" t="s">
         <v>38</v>
       </c>
@@ -8726,7 +9465,7 @@
       <c r="A62" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="136"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="38" t="s">
         <v>64</v>
       </c>
@@ -8752,7 +9491,7 @@
       <c r="A63" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="136"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="38" t="s">
         <v>66</v>
       </c>
@@ -8778,7 +9517,7 @@
       <c r="A64" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="136"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="38" t="s">
         <v>68</v>
       </c>
@@ -8804,7 +9543,7 @@
       <c r="A65" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="136"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="38" t="s">
         <v>70</v>
       </c>
@@ -8836,7 +9575,7 @@
       <c r="A66" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="136"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="38" t="s">
         <v>72</v>
       </c>
@@ -8868,10 +9607,10 @@
       <c r="A67" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="129" t="s">
+      <c r="B67" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="130"/>
+      <c r="C67" s="105"/>
       <c r="D67" s="30">
         <f>D61+D55+D23</f>
         <v>0</v>
@@ -8909,10 +9648,10 @@
       <c r="A68" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="129" t="s">
+      <c r="B68" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="130"/>
+      <c r="C68" s="105"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="93" t="e">
@@ -8941,10 +9680,10 @@
       <c r="A69" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="129" t="s">
+      <c r="B69" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="130"/>
+      <c r="C69" s="105"/>
       <c r="D69" s="30">
         <f>$D$25+$D$31+$D$37+$D$43+$D$49</f>
         <v>0</v>
@@ -8982,17 +9721,17 @@
       <c r="A70" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="129" t="s">
+      <c r="B70" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="130"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="138"/>
-      <c r="F70" s="138"/>
-      <c r="G70" s="138"/>
-      <c r="H70" s="138"/>
-      <c r="I70" s="138"/>
-      <c r="J70" s="139"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="114"/>
       <c r="K70" s="18"/>
       <c r="L70" s="45"/>
       <c r="M70" s="42"/>
@@ -9005,17 +9744,17 @@
       <c r="A71" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="129" t="s">
+      <c r="B71" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="130"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="138"/>
-      <c r="F71" s="138"/>
-      <c r="G71" s="138"/>
-      <c r="H71" s="138"/>
-      <c r="I71" s="138"/>
-      <c r="J71" s="139"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="114"/>
       <c r="K71" s="18"/>
       <c r="L71" s="46"/>
       <c r="M71" s="44"/>
@@ -9028,20 +9767,20 @@
       <c r="A72" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="129" t="s">
+      <c r="B72" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="130"/>
-      <c r="D72" s="131" t="e">
+      <c r="C72" s="105"/>
+      <c r="D72" s="106" t="e">
         <f>D70/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="132"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="133"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="108"/>
       <c r="K72" s="18"/>
       <c r="L72" s="44"/>
       <c r="M72" s="42"/>
@@ -9054,20 +9793,20 @@
       <c r="A73" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="129" t="s">
+      <c r="B73" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="130"/>
-      <c r="D73" s="131" t="e">
+      <c r="C73" s="105"/>
+      <c r="D73" s="106" t="e">
         <f>D71/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="132"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="133"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="108"/>
       <c r="K73" s="18"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -9080,20 +9819,20 @@
       <c r="A74" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="129" t="s">
+      <c r="B74" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="130"/>
-      <c r="D74" s="131" t="e">
+      <c r="C74" s="105"/>
+      <c r="D74" s="106" t="e">
         <f>(D70+D71)/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="132"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="132"/>
-      <c r="J74" s="133"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="108"/>
       <c r="K74" s="18"/>
       <c r="L74" s="42"/>
       <c r="M74" s="7"/>
@@ -9106,20 +9845,20 @@
       <c r="A75" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="129" t="s">
+      <c r="B75" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="130"/>
-      <c r="D75" s="131" t="e">
+      <c r="C75" s="105"/>
+      <c r="D75" s="106" t="e">
         <f>D70/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="132"/>
-      <c r="F75" s="132"/>
-      <c r="G75" s="132"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="132"/>
-      <c r="J75" s="133"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="108"/>
       <c r="K75" s="18"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -9132,20 +9871,20 @@
       <c r="A76" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="129" t="s">
+      <c r="B76" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="130"/>
-      <c r="D76" s="131" t="e">
+      <c r="C76" s="105"/>
+      <c r="D76" s="106" t="e">
         <f>D71/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="132"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="133"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="108"/>
       <c r="K76" s="18"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -9158,20 +9897,20 @@
       <c r="A77" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="129" t="s">
+      <c r="B77" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="130"/>
-      <c r="D77" s="131" t="e">
+      <c r="C77" s="105"/>
+      <c r="D77" s="106" t="e">
         <f>(F70+F71)/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="132"/>
-      <c r="F77" s="132"/>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="133"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="108"/>
       <c r="K77" s="18"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -9371,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="61">
-        <f t="shared" ref="E84:F87" si="5">H40*10%</f>
+        <f t="shared" ref="E85" si="5">H40*10%</f>
         <v>0</v>
       </c>
       <c r="F85" s="61">
@@ -9514,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="73">
-        <f t="shared" ref="D88:I88" si="6">SUM(F83:F87)</f>
+        <f t="shared" ref="F88:I88" si="6">SUM(F83:F87)</f>
         <v>0</v>
       </c>
       <c r="G88" s="73">
@@ -9633,14 +10372,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B23:B24"/>
@@ -9654,22 +10397,555 @@
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:J72"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="2.90625" style="140" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="140" customWidth="1"/>
+    <col min="3" max="3" width="9" style="140" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="140" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" style="140" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="140" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="140" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" style="140" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" style="140" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" style="140" customWidth="1"/>
+    <col min="11" max="12" width="12.6328125" style="140" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" style="140" customWidth="1"/>
+    <col min="14" max="15" width="17.36328125" style="140" customWidth="1"/>
+    <col min="16" max="17" width="15.6328125" style="140" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" style="140" customWidth="1"/>
+    <col min="19" max="19" width="12.90625" style="140" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="140"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="B1" s="140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="140" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="186">
+        <v>201909</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="140" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="182" t="s">
+        <v>191</v>
+      </c>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="140" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="R4" s="184"/>
+      <c r="S4" s="183" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="C5" s="182"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="183"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="C6" s="182"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="181"/>
+    </row>
+    <row r="7" spans="2:24" s="179" customFormat="1" ht="51">
+      <c r="B7" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="180" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="180" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="180" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="180" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="180" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="180" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="180" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" s="180" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" s="176" customFormat="1" ht="15.5">
+      <c r="B8" s="167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="177"/>
+    </row>
+    <row r="9" spans="2:24" s="176" customFormat="1" ht="15.5">
+      <c r="B9" s="167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="177"/>
+    </row>
+    <row r="10" spans="2:24" s="163" customFormat="1" ht="15.5">
+      <c r="B10" s="167" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="174"/>
+    </row>
+    <row r="11" spans="2:24" s="163" customFormat="1" ht="15.5">
+      <c r="B11" s="167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="173"/>
+    </row>
+    <row r="12" spans="2:24" s="163" customFormat="1">
+      <c r="B12" s="167" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="172" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" s="163" customFormat="1" ht="15.5">
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+    </row>
+    <row r="14" spans="2:24" s="160" customFormat="1">
+      <c r="F14" s="162">
+        <f>SUM(F8:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="162">
+        <f>SUM(G8:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="162">
+        <f>SUM(H8:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="162">
+        <f>SUM(I8:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="162">
+        <f>SUM(J8:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="162">
+        <f>SUM(K8:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="162">
+        <f>SUM(L8:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="162">
+        <f>SUM(M8:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="162">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="162">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="162">
+        <f>SUM(P8:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="162">
+        <f>SUM(Q8:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="161"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="152"/>
+      <c r="X15" s="152"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+    </row>
+    <row r="17" spans="1:25" ht="35.25" customHeight="1">
+      <c r="B17" s="154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" customHeight="1">
+      <c r="B18" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="B19" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="140" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="141" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="151"/>
+      <c r="B22" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="150"/>
+      <c r="D22" s="147"/>
+      <c r="G22" s="146"/>
+      <c r="I22" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="148"/>
+      <c r="K22" s="149"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="144"/>
+      <c r="T22" s="143"/>
+      <c r="W22" s="142"/>
+      <c r="Y22" s="141" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B17:S17"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="R6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"標楷體,標準"&amp;14製表單位：放款管理課&amp;C第 &amp;P 頁，共 &amp;N 頁</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
+++ b/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14420" windowHeight="6110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
   </bookViews>
   <sheets>
     <sheet name="表14-2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_X" hidden="1">'[1]5DAYRPT '!#REF!</definedName>
@@ -200,7 +199,7 @@
     <definedName name="SHT071TR9">#REF!</definedName>
     <definedName name="SHT080BR1">#REF!</definedName>
     <definedName name="SHT080TR1">#REF!</definedName>
-    <definedName name="SHT100TR8" localSheetId="1">[10]表10!$G$44</definedName>
+    <definedName name="SHT100TR8" localSheetId="1">[9]表10!$G$44</definedName>
     <definedName name="SHT100TR8">[5]表10!$G$38</definedName>
     <definedName name="SHT151BR1">#REF!</definedName>
     <definedName name="SHT151TR1">#REF!</definedName>
@@ -217,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="196">
   <si>
     <r>
       <t>新光人壽保險股份有限公司</t>
@@ -2039,9 +2038,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>A042放款餘額彙總表</t>
-  </si>
-  <si>
     <t>報表名稱</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2067,6 +2063,10 @@
   <si>
     <t>年報</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>A142放款餘額彙總表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4276,6 +4276,217 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4312,222 +4523,11 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="51" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="51" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="21" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="288">
@@ -4909,113 +4909,6 @@
       <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
       <sheetData sheetId="34" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="公司基本資料"/>
-      <sheetName val="公司動態基本資料"/>
-      <sheetName val="表01"/>
-      <sheetName val="表02(資產)"/>
-      <sheetName val="表02(資產附表)"/>
-      <sheetName val="表02(負債業主權益)"/>
-      <sheetName val="表03"/>
-      <sheetName val="表04"/>
-      <sheetName val="表05(個人契約)"/>
-      <sheetName val="表05(團體契約)"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="表06"/>
-      <sheetName val="表07(個人契約)"/>
-      <sheetName val="表07(團體契約)"/>
-      <sheetName val="表08"/>
-      <sheetName val="表09"/>
-      <sheetName val="表10"/>
-      <sheetName val="表11"/>
-      <sheetName val="表11(總計)"/>
-      <sheetName val="表12"/>
-      <sheetName val="表13"/>
-      <sheetName val="表13(總計)"/>
-      <sheetName val="表14"/>
-      <sheetName val="表14(總計)"/>
-      <sheetName val="表15"/>
-      <sheetName val="表15(合併列示及總計)"/>
-      <sheetName val="表16"/>
-      <sheetName val="表16(總計)"/>
-      <sheetName val="表17"/>
-      <sheetName val="表17(總計)"/>
-      <sheetName val="表18"/>
-      <sheetName val="表18(總計)"/>
-      <sheetName val="表19"/>
-      <sheetName val="表19-1"/>
-      <sheetName val="表20"/>
-      <sheetName val="表20(總計)"/>
-      <sheetName val="表21"/>
-      <sheetName val="格式檢查"/>
-      <sheetName val="數學勾稽"/>
-      <sheetName val="轉檔資訊"/>
-      <sheetName val="適法性稽核"/>
-      <sheetName val="合理性稽核"/>
-      <sheetName val="引申變數"/>
-      <sheetName val="代碼資料"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="44">
-          <cell r="G44">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7417,12 +7310,104 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="A042填報說明"/>
-      <sheetName val="A042放款餘額彙總表"/>
+      <sheetName val="封面"/>
+      <sheetName val="公司基本資料"/>
+      <sheetName val="公司動態基本資料"/>
+      <sheetName val="表01"/>
+      <sheetName val="表02(資產)"/>
+      <sheetName val="表02(資產附表)"/>
+      <sheetName val="表02(負債業主權益)"/>
+      <sheetName val="表03"/>
+      <sheetName val="表04"/>
+      <sheetName val="表05(個人契約)"/>
+      <sheetName val="表05(團體契約)"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="表06"/>
+      <sheetName val="表07(個人契約)"/>
+      <sheetName val="表07(團體契約)"/>
+      <sheetName val="表08"/>
+      <sheetName val="表09"/>
+      <sheetName val="表10"/>
+      <sheetName val="表11"/>
+      <sheetName val="表11(總計)"/>
+      <sheetName val="表12"/>
+      <sheetName val="表13"/>
+      <sheetName val="表13(總計)"/>
+      <sheetName val="表14"/>
+      <sheetName val="表14(總計)"/>
+      <sheetName val="表15"/>
+      <sheetName val="表15(合併列示及總計)"/>
+      <sheetName val="表16"/>
+      <sheetName val="表16(總計)"/>
+      <sheetName val="表17"/>
+      <sheetName val="表17(總計)"/>
+      <sheetName val="表18"/>
+      <sheetName val="表18(總計)"/>
+      <sheetName val="表19"/>
+      <sheetName val="表19-1"/>
+      <sheetName val="表20"/>
+      <sheetName val="表20(總計)"/>
+      <sheetName val="表21"/>
+      <sheetName val="格式檢查"/>
+      <sheetName val="數學勾稽"/>
+      <sheetName val="轉檔資訊"/>
+      <sheetName val="適法性稽核"/>
+      <sheetName val="合理性稽核"/>
+      <sheetName val="引申變數"/>
+      <sheetName val="代碼資料"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
+        <row r="44">
+          <cell r="G44">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7761,11 +7746,11 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -7779,39 +7764,39 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="156"/>
+      <c r="D3" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="126" t="s">
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="167" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="131"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
@@ -7821,17 +7806,17 @@
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="120"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
@@ -7863,7 +7848,7 @@
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="169" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -7897,7 +7882,7 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
@@ -7935,7 +7920,7 @@
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="123"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
@@ -7965,7 +7950,7 @@
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="123"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
@@ -7992,7 +7977,7 @@
       <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
@@ -8019,7 +8004,7 @@
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
@@ -8046,7 +8031,7 @@
       <c r="A12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8073,7 +8058,7 @@
       <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="123"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="32" t="s">
         <v>40</v>
       </c>
@@ -8109,7 +8094,7 @@
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="149" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -8138,7 +8123,7 @@
       <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="123"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
@@ -8165,7 +8150,7 @@
       <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="123"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="26" t="s">
         <v>47</v>
       </c>
@@ -8192,7 +8177,7 @@
       <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="125"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="37" t="s">
         <v>49</v>
       </c>
@@ -8218,7 +8203,7 @@
       <c r="A18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="37" t="s">
         <v>40</v>
       </c>
@@ -8253,7 +8238,7 @@
       <c r="A19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="149" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -8281,7 +8266,7 @@
       <c r="A20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="123"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="26" t="s">
         <v>45</v>
       </c>
@@ -8307,7 +8292,7 @@
       <c r="A21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="123"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="26" t="s">
         <v>47</v>
       </c>
@@ -8333,7 +8318,7 @@
       <c r="A22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="123"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="37" t="s">
         <v>49</v>
       </c>
@@ -8359,7 +8344,7 @@
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -8396,7 +8381,7 @@
       <c r="A24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="110"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="37" t="s">
         <v>60</v>
       </c>
@@ -8422,7 +8407,7 @@
       <c r="A25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="179" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -8459,7 +8444,7 @@
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="111"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="38" t="s">
         <v>64</v>
       </c>
@@ -8485,7 +8470,7 @@
       <c r="A27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="111"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="38" t="s">
         <v>66</v>
       </c>
@@ -8511,7 +8496,7 @@
       <c r="A28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="38" t="s">
         <v>68</v>
       </c>
@@ -8537,7 +8522,7 @@
       <c r="A29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="38" t="s">
         <v>70</v>
       </c>
@@ -8563,7 +8548,7 @@
       <c r="A30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="111"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="38" t="s">
         <v>72</v>
       </c>
@@ -8589,7 +8574,7 @@
       <c r="A31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="111"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="26" t="s">
         <v>27</v>
       </c>
@@ -8624,7 +8609,7 @@
       <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="38" t="s">
         <v>64</v>
       </c>
@@ -8650,7 +8635,7 @@
       <c r="A33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="111"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="38" t="s">
         <v>66</v>
       </c>
@@ -8677,7 +8662,7 @@
       <c r="A34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="111"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="38" t="s">
         <v>68</v>
       </c>
@@ -8704,7 +8689,7 @@
       <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="111"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="38" t="s">
         <v>70</v>
       </c>
@@ -8731,7 +8716,7 @@
       <c r="A36" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="38" t="s">
         <v>72</v>
       </c>
@@ -8758,7 +8743,7 @@
       <c r="A37" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="26" t="s">
         <v>30</v>
       </c>
@@ -8794,7 +8779,7 @@
       <c r="A38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="111"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="38" t="s">
         <v>64</v>
       </c>
@@ -8821,7 +8806,7 @@
       <c r="A39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="38" t="s">
         <v>66</v>
       </c>
@@ -8848,7 +8833,7 @@
       <c r="A40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="111"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="38" t="s">
         <v>68</v>
       </c>
@@ -8875,7 +8860,7 @@
       <c r="A41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="111"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="38" t="s">
         <v>70</v>
       </c>
@@ -8902,7 +8887,7 @@
       <c r="A42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="111"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="38" t="s">
         <v>72</v>
       </c>
@@ -8929,7 +8914,7 @@
       <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="26" t="s">
         <v>86</v>
       </c>
@@ -8965,7 +8950,7 @@
       <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="38" t="s">
         <v>64</v>
       </c>
@@ -8992,7 +8977,7 @@
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="111"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="38" t="s">
         <v>66</v>
       </c>
@@ -9019,7 +9004,7 @@
       <c r="A46" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="111"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="38" t="s">
         <v>68</v>
       </c>
@@ -9046,7 +9031,7 @@
       <c r="A47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="111"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="38" t="s">
         <v>70</v>
       </c>
@@ -9073,7 +9058,7 @@
       <c r="A48" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="38" t="s">
         <v>72</v>
       </c>
@@ -9100,7 +9085,7 @@
       <c r="A49" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="26" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9120,7 @@
       <c r="A50" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="111"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="38" t="s">
         <v>64</v>
       </c>
@@ -9161,7 +9146,7 @@
       <c r="A51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="38" t="s">
         <v>66</v>
       </c>
@@ -9187,7 +9172,7 @@
       <c r="A52" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="111"/>
+      <c r="B52" s="181"/>
       <c r="C52" s="38" t="s">
         <v>96</v>
       </c>
@@ -9213,7 +9198,7 @@
       <c r="A53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="111"/>
+      <c r="B53" s="181"/>
       <c r="C53" s="38" t="s">
         <v>70</v>
       </c>
@@ -9239,7 +9224,7 @@
       <c r="A54" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="111"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="38" t="s">
         <v>72</v>
       </c>
@@ -9265,7 +9250,7 @@
       <c r="A55" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="111"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="26" t="s">
         <v>36</v>
       </c>
@@ -9300,7 +9285,7 @@
       <c r="A56" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="111"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="38" t="s">
         <v>64</v>
       </c>
@@ -9326,7 +9311,7 @@
       <c r="A57" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="111"/>
+      <c r="B57" s="181"/>
       <c r="C57" s="38" t="s">
         <v>66</v>
       </c>
@@ -9352,7 +9337,7 @@
       <c r="A58" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="111"/>
+      <c r="B58" s="181"/>
       <c r="C58" s="38" t="s">
         <v>68</v>
       </c>
@@ -9378,7 +9363,7 @@
       <c r="A59" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="111"/>
+      <c r="B59" s="181"/>
       <c r="C59" s="38" t="s">
         <v>70</v>
       </c>
@@ -9404,7 +9389,7 @@
       <c r="A60" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="181"/>
       <c r="C60" s="38" t="s">
         <v>72</v>
       </c>
@@ -9430,7 +9415,7 @@
       <c r="A61" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="111"/>
+      <c r="B61" s="181"/>
       <c r="C61" s="32" t="s">
         <v>38</v>
       </c>
@@ -9465,7 +9450,7 @@
       <c r="A62" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="111"/>
+      <c r="B62" s="181"/>
       <c r="C62" s="38" t="s">
         <v>64</v>
       </c>
@@ -9491,7 +9476,7 @@
       <c r="A63" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="111"/>
+      <c r="B63" s="181"/>
       <c r="C63" s="38" t="s">
         <v>66</v>
       </c>
@@ -9517,7 +9502,7 @@
       <c r="A64" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="111"/>
+      <c r="B64" s="181"/>
       <c r="C64" s="38" t="s">
         <v>68</v>
       </c>
@@ -9543,7 +9528,7 @@
       <c r="A65" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="111"/>
+      <c r="B65" s="181"/>
       <c r="C65" s="38" t="s">
         <v>70</v>
       </c>
@@ -9575,7 +9560,7 @@
       <c r="A66" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="111"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="38" t="s">
         <v>72</v>
       </c>
@@ -9607,10 +9592,10 @@
       <c r="A67" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="105"/>
+      <c r="C67" s="175"/>
       <c r="D67" s="30">
         <f>D61+D55+D23</f>
         <v>0</v>
@@ -9648,10 +9633,10 @@
       <c r="A68" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="105"/>
+      <c r="C68" s="175"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="93" t="e">
@@ -9680,10 +9665,10 @@
       <c r="A69" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="105"/>
+      <c r="C69" s="175"/>
       <c r="D69" s="30">
         <f>$D$25+$D$31+$D$37+$D$43+$D$49</f>
         <v>0</v>
@@ -9721,17 +9706,17 @@
       <c r="A70" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="105"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="114"/>
+      <c r="C70" s="175"/>
+      <c r="D70" s="182"/>
+      <c r="E70" s="183"/>
+      <c r="F70" s="183"/>
+      <c r="G70" s="183"/>
+      <c r="H70" s="183"/>
+      <c r="I70" s="183"/>
+      <c r="J70" s="184"/>
       <c r="K70" s="18"/>
       <c r="L70" s="45"/>
       <c r="M70" s="42"/>
@@ -9744,17 +9729,17 @@
       <c r="A71" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="104" t="s">
+      <c r="B71" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="105"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="113"/>
-      <c r="J71" s="114"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="182"/>
+      <c r="E71" s="183"/>
+      <c r="F71" s="183"/>
+      <c r="G71" s="183"/>
+      <c r="H71" s="183"/>
+      <c r="I71" s="183"/>
+      <c r="J71" s="184"/>
       <c r="K71" s="18"/>
       <c r="L71" s="46"/>
       <c r="M71" s="44"/>
@@ -9767,20 +9752,20 @@
       <c r="A72" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="104" t="s">
+      <c r="B72" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="105"/>
-      <c r="D72" s="106" t="e">
+      <c r="C72" s="175"/>
+      <c r="D72" s="176" t="e">
         <f>D70/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="107"/>
-      <c r="J72" s="108"/>
+      <c r="E72" s="177"/>
+      <c r="F72" s="177"/>
+      <c r="G72" s="177"/>
+      <c r="H72" s="177"/>
+      <c r="I72" s="177"/>
+      <c r="J72" s="178"/>
       <c r="K72" s="18"/>
       <c r="L72" s="44"/>
       <c r="M72" s="42"/>
@@ -9793,20 +9778,20 @@
       <c r="A73" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="104" t="s">
+      <c r="B73" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="106" t="e">
+      <c r="C73" s="175"/>
+      <c r="D73" s="176" t="e">
         <f>D71/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="108"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177"/>
+      <c r="I73" s="177"/>
+      <c r="J73" s="178"/>
       <c r="K73" s="18"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -9819,20 +9804,20 @@
       <c r="A74" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="104" t="s">
+      <c r="B74" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="106" t="e">
+      <c r="C74" s="175"/>
+      <c r="D74" s="176" t="e">
         <f>(D70+D71)/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="108"/>
+      <c r="E74" s="177"/>
+      <c r="F74" s="177"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="177"/>
+      <c r="I74" s="177"/>
+      <c r="J74" s="178"/>
       <c r="K74" s="18"/>
       <c r="L74" s="42"/>
       <c r="M74" s="7"/>
@@ -9845,20 +9830,20 @@
       <c r="A75" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="105"/>
-      <c r="D75" s="106" t="e">
+      <c r="C75" s="175"/>
+      <c r="D75" s="176" t="e">
         <f>D70/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="108"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
+      <c r="I75" s="177"/>
+      <c r="J75" s="178"/>
       <c r="K75" s="18"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -9871,20 +9856,20 @@
       <c r="A76" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="104" t="s">
+      <c r="B76" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106" t="e">
+      <c r="C76" s="175"/>
+      <c r="D76" s="176" t="e">
         <f>D71/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="107"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="107"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="107"/>
-      <c r="J76" s="108"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="177"/>
+      <c r="I76" s="177"/>
+      <c r="J76" s="178"/>
       <c r="K76" s="18"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -9897,20 +9882,20 @@
       <c r="A77" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106" t="e">
+      <c r="C77" s="175"/>
+      <c r="D77" s="176" t="e">
         <f>(F70+F71)/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="108"/>
+      <c r="E77" s="177"/>
+      <c r="F77" s="177"/>
+      <c r="G77" s="177"/>
+      <c r="H77" s="177"/>
+      <c r="I77" s="177"/>
+      <c r="J77" s="178"/>
       <c r="K77" s="18"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -10372,18 +10357,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B23:B24"/>
@@ -10397,14 +10378,18 @@
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:J72"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10429,508 +10414,516 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="2.90625" style="140" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="140" customWidth="1"/>
-    <col min="3" max="3" width="9" style="140" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="140" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" style="140" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="140" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="140" customWidth="1"/>
-    <col min="8" max="8" width="24.90625" style="140" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" style="140" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="140" customWidth="1"/>
-    <col min="11" max="12" width="12.6328125" style="140" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" style="140" customWidth="1"/>
-    <col min="14" max="15" width="17.36328125" style="140" customWidth="1"/>
-    <col min="16" max="17" width="15.6328125" style="140" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" style="140" customWidth="1"/>
-    <col min="19" max="19" width="12.90625" style="140" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="140"/>
+    <col min="1" max="1" width="2.90625" style="104" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="104" customWidth="1"/>
+    <col min="3" max="3" width="9" style="104" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="104" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" style="104" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="104" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="104" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" style="104" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" style="104" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" style="104" customWidth="1"/>
+    <col min="11" max="12" width="12.6328125" style="104" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" style="104" customWidth="1"/>
+    <col min="14" max="15" width="17.36328125" style="104" customWidth="1"/>
+    <col min="16" max="17" width="15.6328125" style="104" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" style="104" customWidth="1"/>
+    <col min="19" max="19" width="12.90625" style="104" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="140" t="s">
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="148">
+        <v>201909</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="144" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="2:24">
-      <c r="B2" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="186">
-        <v>201909</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="140" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="182" t="s">
-        <v>191</v>
-      </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="140" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="182" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="184"/>
-      <c r="S4" s="183" t="s">
+      <c r="R4" s="146"/>
+      <c r="S4" s="145" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="C5" s="182"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="183"/>
+      <c r="C5" s="144"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="145"/>
     </row>
     <row r="6" spans="2:24">
-      <c r="C6" s="182"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-    </row>
-    <row r="7" spans="2:24" s="179" customFormat="1" ht="51">
-      <c r="B7" s="180" t="s">
+      <c r="C6" s="144"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+    </row>
+    <row r="7" spans="2:24" s="142" customFormat="1" ht="51">
+      <c r="B7" s="143" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="180" t="s">
+      <c r="C7" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="180" t="s">
+      <c r="F7" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="180" t="s">
+      <c r="G7" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="180" t="s">
+      <c r="H7" s="143" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="180" t="s">
+      <c r="I7" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="180" t="s">
+      <c r="K7" s="143" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="180" t="s">
+      <c r="L7" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="143" t="s">
         <v>175</v>
       </c>
-      <c r="N7" s="180" t="s">
+      <c r="N7" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="O7" s="180" t="s">
+      <c r="O7" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="180" t="s">
+      <c r="P7" s="143" t="s">
         <v>172</v>
       </c>
-      <c r="Q7" s="180" t="s">
+      <c r="Q7" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="180" t="s">
+      <c r="R7" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="S7" s="180" t="s">
+      <c r="S7" s="143" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:24" s="176" customFormat="1" ht="15.5">
-      <c r="B8" s="167" t="s">
+    <row r="8" spans="2:24" s="139" customFormat="1" ht="15.5">
+      <c r="B8" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="177"/>
-    </row>
-    <row r="9" spans="2:24" s="176" customFormat="1" ht="15.5">
-      <c r="B9" s="167" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="140"/>
+    </row>
+    <row r="9" spans="2:24" s="139" customFormat="1" ht="15.5">
+      <c r="B9" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="177"/>
-    </row>
-    <row r="10" spans="2:24" s="163" customFormat="1" ht="15.5">
-      <c r="B10" s="167" t="s">
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="140"/>
+    </row>
+    <row r="10" spans="2:24" s="126" customFormat="1" ht="15.5">
+      <c r="B10" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="166" t="s">
+      <c r="E10" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="174"/>
-    </row>
-    <row r="11" spans="2:24" s="163" customFormat="1" ht="15.5">
-      <c r="B11" s="167" t="s">
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="137"/>
+    </row>
+    <row r="11" spans="2:24" s="126" customFormat="1" ht="15.5">
+      <c r="B11" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="173"/>
-    </row>
-    <row r="12" spans="2:24" s="163" customFormat="1">
-      <c r="B12" s="167" t="s">
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="136"/>
+    </row>
+    <row r="12" spans="2:24" s="126" customFormat="1">
+      <c r="B12" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="167" t="s">
+      <c r="D12" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="168" t="s">
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="131" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:24" s="163" customFormat="1" ht="15.5">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-    </row>
-    <row r="14" spans="2:24" s="160" customFormat="1">
-      <c r="F14" s="162">
-        <f>SUM(F8:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="162">
-        <f>SUM(G8:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="162">
-        <f>SUM(H8:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="162">
-        <f>SUM(I8:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="162">
-        <f>SUM(J8:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="162">
-        <f>SUM(K8:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="162">
-        <f>SUM(L8:L13)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="162">
-        <f>SUM(M8:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="162">
-        <f>SUM(N8:N13)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="162">
-        <f>SUM(O8:O13)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="162">
-        <f>SUM(P8:P13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="162">
-        <f>SUM(Q8:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="161"/>
+    <row r="13" spans="2:24" s="126" customFormat="1" ht="15.5">
+      <c r="B13" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+    </row>
+    <row r="14" spans="2:24" s="123" customFormat="1">
+      <c r="F14" s="125">
+        <f t="shared" ref="F14:Q14" si="0">SUM(F8:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="124"/>
     </row>
     <row r="15" spans="2:24">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="152"/>
-      <c r="W15" s="152"/>
-      <c r="X15" s="152"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="152"/>
-      <c r="X16" s="152"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
     </row>
     <row r="17" spans="1:25" ht="35.25" customHeight="1">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
     </row>
     <row r="18" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="185" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="152"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="152"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="141" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="141" t="s">
+    <row r="22" spans="1:25" s="105" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="115"/>
+      <c r="B22" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="147"/>
-      <c r="G22" s="146"/>
-      <c r="I22" s="146" t="s">
+      <c r="C22" s="114"/>
+      <c r="D22" s="111"/>
+      <c r="G22" s="110"/>
+      <c r="I22" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="148"/>
-      <c r="K22" s="149"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="141" t="s">
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="144"/>
-      <c r="T22" s="143"/>
-      <c r="W22" s="142"/>
-      <c r="Y22" s="141" t="s">
+      <c r="Q22" s="109"/>
+      <c r="R22" s="108"/>
+      <c r="T22" s="107"/>
+      <c r="W22" s="106"/>
+      <c r="Y22" s="105" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
+++ b/Program/Other/LY003_底稿_非RBC_表14-2_會計部年度檢查報表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B551198-93D8-4394-8C75-2D71ED31387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表14-2" sheetId="1" r:id="rId1"/>
-    <sheet name="A142放款餘額彙總表" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -23,8 +24,6 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_X" hidden="1">'[1]5DAYRPT '!#REF!</definedName>
@@ -57,7 +56,6 @@
     <definedName name="cc">#REF!</definedName>
     <definedName name="CP">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
-    <definedName name="_xlnm.Database" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="dfg">'[5]表02(負債業主權益)'!$A$52</definedName>
     <definedName name="DWP">#REF!</definedName>
@@ -107,7 +105,6 @@
     <definedName name="mh">#REF!</definedName>
     <definedName name="netprem_written">[3]Sheet2!#REF!</definedName>
     <definedName name="NWP">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">A142放款餘額彙總表!$B$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表14-2'!$A$1:$K$92</definedName>
     <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
     <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
@@ -199,24 +196,22 @@
     <definedName name="SHT071TR9">#REF!</definedName>
     <definedName name="SHT080BR1">#REF!</definedName>
     <definedName name="SHT080TR1">#REF!</definedName>
-    <definedName name="SHT100TR8" localSheetId="1">[9]表10!$G$44</definedName>
     <definedName name="SHT100TR8">[5]表10!$G$38</definedName>
     <definedName name="SHT151BR1">#REF!</definedName>
     <definedName name="SHT151TR1">#REF!</definedName>
     <definedName name="sht151tr2">'[5]表15(合併列示及總計)'!$E$7:$E$11</definedName>
     <definedName name="TextRefCopyRangeCount" hidden="1">46</definedName>
     <definedName name="weight_rate">#REF!</definedName>
-    <definedName name="新" localSheetId="1">#REF!</definedName>
     <definedName name="新">#REF!</definedName>
     <definedName name="總體法規稽核結論">#REF!</definedName>
     <definedName name="總體數學勾稽結論">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <r>
       <t>新光人壽保險股份有限公司</t>
@@ -1672,408 +1667,12 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <t>協理：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>經理：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>經辦人：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>放款餘額之本金包含折溢價金額。</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國外：以外幣放款或國際聯貸。</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未列入逾期應予評估放款：包括逾期時間雖尚未達到逾期放款標準，但授信戶已經發生積欠本金或利息的放款；另外，協議分期償還放款雖符合一定條件免予列報逾期放款，仍應列入應予評估放款，不得視為正常之放款。</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>逾期：指積欠本金或利息超過清償期三個月，或雖未超過三個月，惟已向主、從債務人訴追或處分擔保品者。協議分期償還放款符合一定條件，並依協議條件履行達六個月以上，且協議利率不低於原承作利率或保險業新承作同類風險放款之利率者，得免予列報逾期放款。
-  但於免列報期間再發生未依約清償超過三個月者，仍應予列報。</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>放款種類：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>A.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>銀行保證放款，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>B.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>動產擔保放款，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不動產抵押放款，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有價證券質押放款，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>E.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>壽險貸款，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>墊繳保費，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t>Z.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>其他。</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>本表填報定義如下：</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>專案運用</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>TW</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註
-(18)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFRS 9預期損失增提金額
-(17)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>備抵損失Ⅴ
-(16)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>備抵損失Ⅳ
-(15)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>備抵損失Ⅲ
-(14)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>備抵損失Ⅱ
-(13)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>備抵損失I
-(12)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回無望Ⅴ
-(11)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回困難Ⅳ
-(10)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>可望收回Ⅲ
-(9)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>應予注意Ⅱ
-(8)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常放款I
-(7)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>未列入逾期應予評估放款
-(6)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期放款
-(5)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為專案運用公共
-及社會福利事業投資
-(4)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有資產幣別
-(3)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>國別
-(2)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款種類
-(1)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位：新台幣元、%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>報表名稱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>機密等級：密</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>新光人壽保險股份有限公司</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名稱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>申報年月</t>
-  </si>
-  <si>
-    <t>報表種類</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>年報</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>A142放款餘額彙總表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="20">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2094,10 +1693,8 @@
     <numFmt numFmtId="190" formatCode="&quot;Yes&quot;;&quot;Yes&quot;;&quot;No&quot;"/>
     <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="192" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="193" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="194" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="71">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2580,17 +2177,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -3986,7 +3572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4002,90 +3588,86 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4094,17 +3676,17 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -4114,44 +3696,41 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4166,7 +3745,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4180,11 +3759,10 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4199,17 +3777,17 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -4221,9 +3799,6 @@
     <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="180" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4236,589 +3811,449 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="37" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="71" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="51" fillId="0" borderId="0" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="22" fillId="0" borderId="0" xfId="89" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="51" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="10" xfId="165" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="20" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="89" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="21" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="288">
-    <cellStyle name="_x000a_shell=progma" xfId="7"/>
-    <cellStyle name="20% - 輔色1 2" xfId="8"/>
-    <cellStyle name="20% - 輔色1 2 2" xfId="9"/>
-    <cellStyle name="20% - 輔色1 3 2" xfId="10"/>
-    <cellStyle name="20% - 輔色2 2" xfId="11"/>
-    <cellStyle name="20% - 輔色2 2 2" xfId="12"/>
-    <cellStyle name="20% - 輔色2 3 2" xfId="13"/>
-    <cellStyle name="20% - 輔色3 2" xfId="14"/>
-    <cellStyle name="20% - 輔色3 2 2" xfId="15"/>
-    <cellStyle name="20% - 輔色3 3 2" xfId="16"/>
-    <cellStyle name="20% - 輔色4 2" xfId="17"/>
-    <cellStyle name="20% - 輔色4 2 2" xfId="18"/>
-    <cellStyle name="20% - 輔色4 3 2" xfId="19"/>
-    <cellStyle name="20% - 輔色5 2" xfId="20"/>
-    <cellStyle name="20% - 輔色5 2 2" xfId="21"/>
-    <cellStyle name="20% - 輔色5 3 2" xfId="22"/>
-    <cellStyle name="20% - 輔色6 2" xfId="23"/>
-    <cellStyle name="20% - 輔色6 2 2" xfId="24"/>
-    <cellStyle name="20% - 輔色6 3 2" xfId="25"/>
-    <cellStyle name="40% - 輔色1 2" xfId="26"/>
-    <cellStyle name="40% - 輔色1 2 2" xfId="27"/>
-    <cellStyle name="40% - 輔色1 3 2" xfId="28"/>
-    <cellStyle name="40% - 輔色2 2" xfId="29"/>
-    <cellStyle name="40% - 輔色2 2 2" xfId="30"/>
-    <cellStyle name="40% - 輔色2 3 2" xfId="31"/>
-    <cellStyle name="40% - 輔色3 2" xfId="32"/>
-    <cellStyle name="40% - 輔色3 2 2" xfId="33"/>
-    <cellStyle name="40% - 輔色3 3 2" xfId="34"/>
-    <cellStyle name="40% - 輔色4 2" xfId="35"/>
-    <cellStyle name="40% - 輔色4 2 2" xfId="36"/>
-    <cellStyle name="40% - 輔色4 3 2" xfId="37"/>
-    <cellStyle name="40% - 輔色5 2" xfId="38"/>
-    <cellStyle name="40% - 輔色5 2 2" xfId="39"/>
-    <cellStyle name="40% - 輔色5 3 2" xfId="40"/>
-    <cellStyle name="40% - 輔色6 2" xfId="41"/>
-    <cellStyle name="40% - 輔色6 2 2" xfId="42"/>
-    <cellStyle name="40% - 輔色6 3 2" xfId="43"/>
-    <cellStyle name="60% - 輔色1 2" xfId="44"/>
-    <cellStyle name="60% - 輔色1 2 2" xfId="45"/>
-    <cellStyle name="60% - 輔色1 3 2" xfId="46"/>
-    <cellStyle name="60% - 輔色2 2" xfId="47"/>
-    <cellStyle name="60% - 輔色2 2 2" xfId="48"/>
-    <cellStyle name="60% - 輔色2 3 2" xfId="49"/>
-    <cellStyle name="60% - 輔色3 2" xfId="50"/>
-    <cellStyle name="60% - 輔色3 2 2" xfId="51"/>
-    <cellStyle name="60% - 輔色3 3 2" xfId="52"/>
-    <cellStyle name="60% - 輔色4 2" xfId="53"/>
-    <cellStyle name="60% - 輔色4 2 2" xfId="54"/>
-    <cellStyle name="60% - 輔色4 3 2" xfId="55"/>
-    <cellStyle name="60% - 輔色5 2" xfId="56"/>
-    <cellStyle name="60% - 輔色5 2 2" xfId="57"/>
-    <cellStyle name="60% - 輔色5 3 2" xfId="58"/>
-    <cellStyle name="60% - 輔色6 2" xfId="59"/>
-    <cellStyle name="60% - 輔色6 2 2" xfId="60"/>
-    <cellStyle name="60% - 輔色6 3 2" xfId="61"/>
-    <cellStyle name="Centered Heading" xfId="62"/>
-    <cellStyle name="Comma [0]_EQ(Asia)" xfId="63"/>
-    <cellStyle name="Comma_Capital Model Draft 022005" xfId="64"/>
-    <cellStyle name="CR Comma" xfId="65"/>
-    <cellStyle name="Credit" xfId="66"/>
-    <cellStyle name="Credit subtotal" xfId="67"/>
-    <cellStyle name="Credit Total" xfId="68"/>
-    <cellStyle name="Debit" xfId="69"/>
-    <cellStyle name="Debit subtotal" xfId="70"/>
-    <cellStyle name="Debit Total" xfId="71"/>
-    <cellStyle name="Euro" xfId="72"/>
-    <cellStyle name="Footnote" xfId="73"/>
-    <cellStyle name="Header1" xfId="74"/>
-    <cellStyle name="Header2" xfId="75"/>
-    <cellStyle name="Heading" xfId="76"/>
-    <cellStyle name="Heading No Underline" xfId="77"/>
-    <cellStyle name="Normal - Style1" xfId="78"/>
-    <cellStyle name="Normal_A" xfId="79"/>
-    <cellStyle name="oft Excel]_x000d__x000a_Comment=The open=/f lines load custom functions into the Paste Function list._x000d__x000a_Maximized=3_x000d__x000a_AutoFormat=" xfId="80"/>
-    <cellStyle name="Percent (0)" xfId="81"/>
-    <cellStyle name="section" xfId="82"/>
-    <cellStyle name="Table Heading" xfId="83"/>
-    <cellStyle name="Table Title" xfId="84"/>
-    <cellStyle name="Table Units" xfId="85"/>
-    <cellStyle name="Tickmark" xfId="86"/>
-    <cellStyle name="一月" xfId="87"/>
+    <cellStyle name="_x000a_shell=progma" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 輔色1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 輔色1 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 輔色1 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 輔色2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 輔色2 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 輔色2 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - 輔色3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 輔色3 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - 輔色3 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 輔色4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 輔色4 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 輔色4 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - 輔色5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 輔色5 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 輔色5 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - 輔色6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - 輔色6 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - 輔色6 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - 輔色1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 輔色1 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40% - 輔色1 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 輔色2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - 輔色2 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - 輔色2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - 輔色3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - 輔色3 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - 輔色3 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - 輔色4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - 輔色4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - 輔色4 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - 輔色5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - 輔色5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - 輔色5 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 輔色6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - 輔色6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - 輔色6 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="60% - 輔色1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="60% - 輔色1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="60% - 輔色1 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="60% - 輔色2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="60% - 輔色2 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="60% - 輔色2 3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="60% - 輔色3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="60% - 輔色3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - 輔色3 3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - 輔色4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - 輔色4 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - 輔色4 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - 輔色5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - 輔色5 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - 輔色5 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - 輔色6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60% - 輔色6 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="60% - 輔色6 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Centered Heading" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Comma [0]_EQ(Asia)" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Comma_Capital Model Draft 022005" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="CR Comma" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Credit" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Credit subtotal" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Credit Total" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Debit" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Debit subtotal" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Debit Total" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Euro" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Footnote" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header1" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Heading" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Heading No Underline" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal - Style1" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal_A" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="oft Excel]_x000d__x000a_Comment=The open=/f lines load custom functions into the Paste Function list._x000d__x000a_Maximized=3_x000d__x000a_AutoFormat=" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Percent (0)" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="section" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Table Heading" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Table Title" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Table Units" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Tickmark" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="一月" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 10" xfId="88"/>
-    <cellStyle name="一般 10 2" xfId="89"/>
-    <cellStyle name="一般 11" xfId="90"/>
-    <cellStyle name="一般 11 2" xfId="91"/>
-    <cellStyle name="一般 11 3" xfId="92"/>
-    <cellStyle name="一般 12" xfId="93"/>
-    <cellStyle name="一般 13" xfId="94"/>
-    <cellStyle name="一般 14" xfId="95"/>
-    <cellStyle name="一般 15" xfId="96"/>
-    <cellStyle name="一般 16" xfId="97"/>
-    <cellStyle name="一般 17" xfId="98"/>
-    <cellStyle name="一般 18" xfId="99"/>
-    <cellStyle name="一般 19" xfId="100"/>
-    <cellStyle name="一般 2" xfId="101"/>
-    <cellStyle name="一般 2 10" xfId="102"/>
-    <cellStyle name="一般 2 2" xfId="6"/>
-    <cellStyle name="一般 2 2 2" xfId="103"/>
-    <cellStyle name="一般 2 2 3" xfId="104"/>
-    <cellStyle name="一般 2 2 4" xfId="105"/>
-    <cellStyle name="一般 2 2 5" xfId="106"/>
-    <cellStyle name="一般 2 2 6" xfId="107"/>
-    <cellStyle name="一般 2 2 7" xfId="108"/>
-    <cellStyle name="一般 2 2 8" xfId="109"/>
-    <cellStyle name="一般 2 3" xfId="110"/>
-    <cellStyle name="一般 2 4" xfId="111"/>
-    <cellStyle name="一般 2 5" xfId="112"/>
-    <cellStyle name="一般 2 6" xfId="113"/>
-    <cellStyle name="一般 2 7" xfId="114"/>
-    <cellStyle name="一般 2 8" xfId="115"/>
-    <cellStyle name="一般 2 9" xfId="116"/>
-    <cellStyle name="一般 2_RBC相關報表-產險" xfId="117"/>
-    <cellStyle name="一般 20" xfId="118"/>
-    <cellStyle name="一般 21" xfId="119"/>
-    <cellStyle name="一般 22" xfId="120"/>
-    <cellStyle name="一般 23" xfId="121"/>
-    <cellStyle name="一般 24" xfId="122"/>
-    <cellStyle name="一般 25" xfId="123"/>
-    <cellStyle name="一般 26" xfId="124"/>
-    <cellStyle name="一般 27" xfId="125"/>
-    <cellStyle name="一般 3" xfId="126"/>
-    <cellStyle name="一般 3 2" xfId="127"/>
-    <cellStyle name="一般 3 2 2" xfId="128"/>
-    <cellStyle name="一般 3 3" xfId="129"/>
-    <cellStyle name="一般 3 3 2" xfId="130"/>
-    <cellStyle name="一般 3 4" xfId="131"/>
-    <cellStyle name="一般 4" xfId="132"/>
-    <cellStyle name="一般 4 2" xfId="133"/>
-    <cellStyle name="一般 4 3" xfId="134"/>
-    <cellStyle name="一般 5" xfId="135"/>
-    <cellStyle name="一般 5 2" xfId="136"/>
-    <cellStyle name="一般 5 3" xfId="137"/>
-    <cellStyle name="一般 6" xfId="138"/>
-    <cellStyle name="一般 6 2" xfId="139"/>
-    <cellStyle name="一般 6 3" xfId="140"/>
-    <cellStyle name="一般 7" xfId="141"/>
-    <cellStyle name="一般 7 2" xfId="142"/>
-    <cellStyle name="一般 7 3" xfId="143"/>
-    <cellStyle name="一般 8" xfId="144"/>
-    <cellStyle name="一般 8 2" xfId="145"/>
-    <cellStyle name="一般 8 3" xfId="146"/>
-    <cellStyle name="一般 9" xfId="147"/>
-    <cellStyle name="一般 9 2" xfId="148"/>
-    <cellStyle name="一般 9 3" xfId="149"/>
-    <cellStyle name="一般_921002保險業月報yaotung" xfId="2"/>
-    <cellStyle name="一般_9211預月" xfId="4"/>
-    <cellStyle name="一般_半年報檢查報表-壽險" xfId="3"/>
+    <cellStyle name="一般 10" xfId="88" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="一般 10 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="一般 11" xfId="90" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="一般 11 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="一般 11 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="一般 12" xfId="93" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="一般 13" xfId="94" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="一般 14" xfId="95" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="一般 15" xfId="96" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="一般 16" xfId="97" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="一般 17" xfId="98" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="一般 18" xfId="99" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="一般 19" xfId="100" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="一般 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="一般 2 10" xfId="102" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="一般 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="一般 2 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="一般 2 2 4" xfId="105" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="一般 2 2 5" xfId="106" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="一般 2 2 6" xfId="107" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="一般 2 2 7" xfId="108" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="一般 2 2 8" xfId="109" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="一般 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="一般 2 4" xfId="111" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="一般 2 5" xfId="112" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="一般 2 6" xfId="113" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="一般 2 7" xfId="114" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="一般 2 8" xfId="115" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="一般 2 9" xfId="116" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="一般 2_RBC相關報表-產險" xfId="117" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="一般 20" xfId="118" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="一般 21" xfId="119" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="一般 22" xfId="120" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="一般 23" xfId="121" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="一般 24" xfId="122" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="一般 25" xfId="123" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="一般 26" xfId="124" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="一般 27" xfId="125" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="一般 3" xfId="126" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="一般 3 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="一般 3 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="一般 3 3" xfId="129" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="一般 3 3 2" xfId="130" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="一般 3 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="一般 4" xfId="132" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="一般 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="一般 4 3" xfId="134" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="一般 5" xfId="135" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="一般 5 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="一般 5 3" xfId="137" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="一般 6" xfId="138" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="一般 6 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="一般 6 3" xfId="140" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="一般 7" xfId="141" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="一般 7 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="一般 7 3" xfId="143" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="一般 8" xfId="144" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="一般 8 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="一般 8 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="一般 9" xfId="147" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="一般 9 2" xfId="148" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="一般 9 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="一般_921002保險業月報yaotung" xfId="2" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="一般_9211預月" xfId="4" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="一般_半年報檢查報表-壽險" xfId="3" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
     <cellStyle name="千分位" xfId="1" builtinId="3"/>
-    <cellStyle name="千分位 2" xfId="150"/>
-    <cellStyle name="千分位 2 2" xfId="151"/>
-    <cellStyle name="千分位 2 3" xfId="152"/>
-    <cellStyle name="千分位 2 3 2" xfId="153"/>
-    <cellStyle name="千分位 2 3 3" xfId="154"/>
-    <cellStyle name="千分位 2 4" xfId="155"/>
-    <cellStyle name="千分位 2 4 2" xfId="156"/>
-    <cellStyle name="千分位 2 4 3" xfId="157"/>
-    <cellStyle name="千分位 2 5" xfId="158"/>
-    <cellStyle name="千分位 2 6" xfId="159"/>
-    <cellStyle name="千分位 2 7" xfId="160"/>
-    <cellStyle name="千分位 2 8" xfId="161"/>
-    <cellStyle name="千分位 2 9" xfId="5"/>
-    <cellStyle name="千分位 3" xfId="162"/>
-    <cellStyle name="千分位 3 2" xfId="163"/>
-    <cellStyle name="千分位 3 3" xfId="164"/>
-    <cellStyle name="千分位 3 4" xfId="165"/>
-    <cellStyle name="千分位 4" xfId="166"/>
-    <cellStyle name="千分位 4 2" xfId="167"/>
-    <cellStyle name="千分位 5" xfId="168"/>
-    <cellStyle name="千分位 6" xfId="169"/>
-    <cellStyle name="千分位 7" xfId="170"/>
-    <cellStyle name="千分位 8" xfId="171"/>
-    <cellStyle name="千分位 8 2" xfId="172"/>
-    <cellStyle name="千分位[0] 2" xfId="173"/>
-    <cellStyle name="千分位[0] 2 2" xfId="174"/>
-    <cellStyle name="千分位[0] 2 3" xfId="175"/>
-    <cellStyle name="千分位[0] 3" xfId="176"/>
-    <cellStyle name="中等 2" xfId="177"/>
-    <cellStyle name="中等 2 2" xfId="178"/>
-    <cellStyle name="中等 3 2" xfId="179"/>
-    <cellStyle name="合計 2" xfId="180"/>
-    <cellStyle name="合計 2 2" xfId="181"/>
-    <cellStyle name="合計 3 2" xfId="182"/>
-    <cellStyle name="好 2" xfId="183"/>
-    <cellStyle name="好 2 2" xfId="184"/>
-    <cellStyle name="好 3 2" xfId="185"/>
-    <cellStyle name="好_3-保險法第3條利害關係人放款餘額表_103" xfId="186"/>
-    <cellStyle name="好_40911201 12~1月明細" xfId="187"/>
-    <cellStyle name="好_RBC相關報表-產險" xfId="188"/>
-    <cellStyle name="好_RBC相關報表-壽險(100.11.10)" xfId="189"/>
-    <cellStyle name="好_RBC相關暨修訂報表-產險0811" xfId="190"/>
-    <cellStyle name="好_半年報檢查報表-業務類強制車險-產險" xfId="191"/>
-    <cellStyle name="好_再保險資產表_100年適用11.21" xfId="192"/>
-    <cellStyle name="好_年報檢查報表-業務類強制車險-產險-修正1129" xfId="193"/>
-    <cellStyle name="好_非RBC相關報表-產險" xfId="194"/>
-    <cellStyle name="好_非RBC相關報表-產險(0512)" xfId="195"/>
-    <cellStyle name="百分比 2" xfId="196"/>
-    <cellStyle name="百分比 2 2" xfId="197"/>
-    <cellStyle name="百分比 2 2 2" xfId="198"/>
-    <cellStyle name="百分比 2 3" xfId="199"/>
-    <cellStyle name="百分比 2 4" xfId="200"/>
-    <cellStyle name="百分比 3" xfId="201"/>
-    <cellStyle name="百分比 4" xfId="202"/>
-    <cellStyle name="百分比 5" xfId="203"/>
-    <cellStyle name="百分比 6" xfId="204"/>
-    <cellStyle name="百分比 7" xfId="205"/>
-    <cellStyle name="計算方式 2" xfId="206"/>
-    <cellStyle name="計算方式 2 2" xfId="207"/>
-    <cellStyle name="計算方式 3 2" xfId="208"/>
-    <cellStyle name="桁区切り 2" xfId="209"/>
-    <cellStyle name="貨幣 2" xfId="210"/>
-    <cellStyle name="貨幣 2 2" xfId="211"/>
-    <cellStyle name="貨幣 2 3" xfId="212"/>
-    <cellStyle name="貨幣[0]" xfId="213"/>
-    <cellStyle name="連結的儲存格 2" xfId="214"/>
-    <cellStyle name="連結的儲存格 2 2" xfId="215"/>
-    <cellStyle name="連結的儲存格 3 2" xfId="216"/>
-    <cellStyle name="備註 2" xfId="217"/>
-    <cellStyle name="備註 2 2" xfId="218"/>
-    <cellStyle name="備註 3" xfId="219"/>
-    <cellStyle name="備註 3 2" xfId="220"/>
-    <cellStyle name="超連結 2" xfId="221"/>
-    <cellStyle name="說明文字 2" xfId="222"/>
-    <cellStyle name="說明文字 2 2" xfId="223"/>
-    <cellStyle name="說明文字 3 2" xfId="224"/>
-    <cellStyle name="輔色1 2" xfId="225"/>
-    <cellStyle name="輔色1 2 2" xfId="226"/>
-    <cellStyle name="輔色1 3 2" xfId="227"/>
-    <cellStyle name="輔色2 2" xfId="228"/>
-    <cellStyle name="輔色2 2 2" xfId="229"/>
-    <cellStyle name="輔色2 3 2" xfId="230"/>
-    <cellStyle name="輔色3 2" xfId="231"/>
-    <cellStyle name="輔色3 2 2" xfId="232"/>
-    <cellStyle name="輔色3 3 2" xfId="233"/>
-    <cellStyle name="輔色4 2" xfId="234"/>
-    <cellStyle name="輔色4 2 2" xfId="235"/>
-    <cellStyle name="輔色4 3 2" xfId="236"/>
-    <cellStyle name="輔色5 2" xfId="237"/>
-    <cellStyle name="輔色5 2 2" xfId="238"/>
-    <cellStyle name="輔色5 3 2" xfId="239"/>
-    <cellStyle name="輔色6 2" xfId="240"/>
-    <cellStyle name="輔色6 2 2" xfId="241"/>
-    <cellStyle name="輔色6 3 2" xfId="242"/>
-    <cellStyle name="標準_01 Per Risk Info 20080229" xfId="243"/>
-    <cellStyle name="標題 1 2" xfId="244"/>
-    <cellStyle name="標題 1 2 2" xfId="245"/>
-    <cellStyle name="標題 1 3 2" xfId="246"/>
-    <cellStyle name="標題 2 2" xfId="247"/>
-    <cellStyle name="標題 2 2 2" xfId="248"/>
-    <cellStyle name="標題 2 3 2" xfId="249"/>
-    <cellStyle name="標題 3 2" xfId="250"/>
-    <cellStyle name="標題 3 2 2" xfId="251"/>
-    <cellStyle name="標題 3 3 2" xfId="252"/>
-    <cellStyle name="標題 4 2" xfId="253"/>
-    <cellStyle name="標題 4 2 2" xfId="254"/>
-    <cellStyle name="標題 4 3 2" xfId="255"/>
-    <cellStyle name="標題 5" xfId="256"/>
-    <cellStyle name="標題 5 2" xfId="257"/>
-    <cellStyle name="標題 6 2" xfId="258"/>
-    <cellStyle name="樣式 1" xfId="259"/>
-    <cellStyle name="輸入 2" xfId="260"/>
-    <cellStyle name="輸入 2 2" xfId="261"/>
-    <cellStyle name="輸入 3 2" xfId="262"/>
-    <cellStyle name="輸出 2" xfId="263"/>
-    <cellStyle name="輸出 2 2" xfId="264"/>
-    <cellStyle name="輸出 3 2" xfId="265"/>
-    <cellStyle name="檢查儲存格 2" xfId="266"/>
-    <cellStyle name="檢查儲存格 2 2" xfId="267"/>
-    <cellStyle name="檢查儲存格 3 2" xfId="268"/>
-    <cellStyle name="壞 2" xfId="269"/>
-    <cellStyle name="壞 2 2" xfId="270"/>
-    <cellStyle name="壞 3 2" xfId="271"/>
-    <cellStyle name="壞_3-保險法第3條利害關係人放款餘額表_103" xfId="272"/>
-    <cellStyle name="壞_40911201 12~1月明細" xfId="273"/>
-    <cellStyle name="壞_RBC相關報表-產險" xfId="274"/>
-    <cellStyle name="壞_RBC相關報表-壽險(100.11.10)" xfId="275"/>
-    <cellStyle name="壞_RBC相關暨修訂報表-產險0811" xfId="276"/>
-    <cellStyle name="壞_火險合約" xfId="277"/>
-    <cellStyle name="壞_火險臨分" xfId="278"/>
-    <cellStyle name="壞_半年報檢查報表-業務類強制車險-產險" xfId="279"/>
-    <cellStyle name="壞_再保險資產表_100年適用11.21" xfId="280"/>
-    <cellStyle name="壞_年報檢查報表-業務類強制車險-產險-修正1129" xfId="281"/>
-    <cellStyle name="壞_非RBC相關報表-產險" xfId="282"/>
-    <cellStyle name="壞_非RBC相關報表-產險(0512)" xfId="283"/>
-    <cellStyle name="壞_莫拉克颱風 (臨分業務)" xfId="284"/>
-    <cellStyle name="警告文字 2" xfId="285"/>
-    <cellStyle name="警告文字 2 2" xfId="286"/>
-    <cellStyle name="警告文字 3 2" xfId="287"/>
+    <cellStyle name="千分位 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="千分位 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="千分位 2 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="千分位 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="千分位 2 3 3" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="千分位 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="千分位 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="千分位 2 4 3" xfId="157" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="千分位 2 5" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="千分位 2 6" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="千分位 2 7" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="千分位 2 8" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="千分位 2 9" xfId="5" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="千分位 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="千分位 3 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="千分位 3 3" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="千分位 3 4" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="千分位 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="千分位 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="千分位 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="千分位 6" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="千分位 7" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="千分位 8" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="千分位 8 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="千分位[0] 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="千分位[0] 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="千分位[0] 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="千分位[0] 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="中等 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="中等 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="中等 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="合計 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="合計 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="合計 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="好 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="好 2 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="好 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="好_3-保險法第3條利害關係人放款餘額表_103" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="好_40911201 12~1月明細" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="好_RBC相關報表-產險" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="好_RBC相關報表-壽險(100.11.10)" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="好_RBC相關暨修訂報表-產險0811" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="好_半年報檢查報表-業務類強制車險-產險" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="好_再保險資產表_100年適用11.21" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="好_年報檢查報表-業務類強制車險-產險-修正1129" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="好_非RBC相關報表-產險" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="好_非RBC相關報表-產險(0512)" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="百分比 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="百分比 2 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="百分比 2 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="百分比 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="百分比 2 4" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="百分比 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="百分比 4" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="百分比 5" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="百分比 6" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="百分比 7" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="計算方式 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="計算方式 2 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="計算方式 3 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="桁区切り 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="貨幣 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="貨幣 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="貨幣 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="貨幣[0]" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="連結的儲存格 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="連結的儲存格 2 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="連結的儲存格 3 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="備註 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="備註 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="備註 3" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="備註 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="超連結 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="說明文字 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="說明文字 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="說明文字 3 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="輔色1 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="輔色1 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="輔色1 3 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="輔色2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="輔色2 2 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="輔色2 3 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="輔色3 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="輔色3 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="輔色3 3 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="輔色4 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="輔色4 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="輔色4 3 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="輔色5 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="輔色5 2 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="輔色5 3 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="輔色6 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="輔色6 2 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="輔色6 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="標準_01 Per Risk Info 20080229" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="標題 1 2" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="標題 1 2 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="標題 1 3 2" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="標題 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="標題 2 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="標題 2 3 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="標題 3 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="標題 3 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="標題 3 3 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="標題 4 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="標題 4 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="標題 4 3 2" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="標題 5" xfId="256" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="標題 5 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="標題 6 2" xfId="258" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="樣式 1" xfId="259" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="輸入 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="輸入 2 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="輸入 3 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="輸出 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="輸出 2 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="輸出 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="檢查儲存格 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="檢查儲存格 2 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="檢查儲存格 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="壞 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="壞 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="壞 3 2" xfId="271" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="壞_3-保險法第3條利害關係人放款餘額表_103" xfId="272" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="壞_40911201 12~1月明細" xfId="273" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="壞_RBC相關報表-產險" xfId="274" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="壞_RBC相關報表-壽險(100.11.10)" xfId="275" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="壞_RBC相關暨修訂報表-產險0811" xfId="276" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="壞_火險合約" xfId="277" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="壞_火險臨分" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="壞_半年報檢查報表-業務類強制車險-產險" xfId="279" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="壞_再保險資產表_100年適用11.21" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="壞_年報檢查報表-業務類強制車險-產險-修正1129" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="壞_非RBC相關報表-產險" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="壞_非RBC相關報表-產險(0512)" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="壞_莫拉克颱風 (臨分業務)" xfId="284" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="警告文字 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="警告文字 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="警告文字 3 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4834,7 +4269,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1RECORD"/>
@@ -4915,7 +4350,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -5134,7 +4569,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -5235,7 +4670,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -5320,7 +4755,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -6356,7 +5791,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -6511,7 +5946,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -6874,7 +6309,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="封面"/>
@@ -7306,113 +6741,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="公司基本資料"/>
-      <sheetName val="公司動態基本資料"/>
-      <sheetName val="表01"/>
-      <sheetName val="表02(資產)"/>
-      <sheetName val="表02(資產附表)"/>
-      <sheetName val="表02(負債業主權益)"/>
-      <sheetName val="表03"/>
-      <sheetName val="表04"/>
-      <sheetName val="表05(個人契約)"/>
-      <sheetName val="表05(團體契約)"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="表06"/>
-      <sheetName val="表07(個人契約)"/>
-      <sheetName val="表07(團體契約)"/>
-      <sheetName val="表08"/>
-      <sheetName val="表09"/>
-      <sheetName val="表10"/>
-      <sheetName val="表11"/>
-      <sheetName val="表11(總計)"/>
-      <sheetName val="表12"/>
-      <sheetName val="表13"/>
-      <sheetName val="表13(總計)"/>
-      <sheetName val="表14"/>
-      <sheetName val="表14(總計)"/>
-      <sheetName val="表15"/>
-      <sheetName val="表15(合併列示及總計)"/>
-      <sheetName val="表16"/>
-      <sheetName val="表16(總計)"/>
-      <sheetName val="表17"/>
-      <sheetName val="表17(總計)"/>
-      <sheetName val="表18"/>
-      <sheetName val="表18(總計)"/>
-      <sheetName val="表19"/>
-      <sheetName val="表19-1"/>
-      <sheetName val="表20"/>
-      <sheetName val="表20(總計)"/>
-      <sheetName val="表21"/>
-      <sheetName val="格式檢查"/>
-      <sheetName val="數學勾稽"/>
-      <sheetName val="轉檔資訊"/>
-      <sheetName val="適法性稽核"/>
-      <sheetName val="合理性稽核"/>
-      <sheetName val="引申變數"/>
-      <sheetName val="代碼資料"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="44">
-          <cell r="G44">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -7489,6 +6817,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7524,6 +6869,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7699,37 +7061,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="51" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="51" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="51" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" style="52" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="13" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9" style="6"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="5.08984375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="49" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="49" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9" style="5"/>
+    <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7742,2629 +7104,2616 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1">
-      <c r="A2" s="151" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1">
-      <c r="A3" s="153" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1">
+      <c r="A3" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="161" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="172" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="167" t="s">
+      <c r="K3" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1">
-      <c r="A4" s="154"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1">
+      <c r="A4" s="126"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="6"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="12" t="s">
+    <row r="5" spans="1:13" s="6" customFormat="1">
+      <c r="A5" s="126"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="e">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="e">
         <f>E6/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="91" t="e">
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="86" t="e">
         <f t="shared" ref="I6:I7" si="0">H6/$L$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="91" t="e">
+      <c r="J6" s="86" t="e">
         <f>I6/$L$6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="64">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="61">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19" t="e">
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17" t="e">
         <f t="shared" ref="F7:F69" si="1">E7/D7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="91" t="e">
+      <c r="G7" s="18"/>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="86" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="91" t="e">
+      <c r="J7" s="86" t="e">
         <f>I7/$L$6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="64">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="61">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:13" s="6" customFormat="1">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="19" t="e">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="91" t="e">
+      <c r="G8" s="18"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="86" t="e">
         <f>H8/$L$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="91" t="e">
+      <c r="J8" s="86" t="e">
         <f t="shared" ref="I8:J69" si="2">I8/$L$6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="25" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:13" s="6" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="19" t="e">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="91" t="e">
+      <c r="G9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="86" t="e">
         <f t="shared" ref="I9:I68" si="3">H9/$L$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="91" t="e">
+      <c r="J9" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:13" s="6" customFormat="1">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="19" t="e">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="91" t="e">
+      <c r="G10" s="18"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="91" t="e">
+      <c r="J10" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:13" s="6" customFormat="1">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="19" t="e">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="91" t="e">
+      <c r="G11" s="18"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="91" t="e">
+      <c r="J11" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:13" s="6" customFormat="1">
+      <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="19" t="e">
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="91" t="e">
+      <c r="G12" s="18"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="91" t="e">
+      <c r="J12" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:13" s="6" customFormat="1">
+      <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="28">
         <f>SUM(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <f>SUM(E6:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="19" t="e">
+      <c r="F13" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="30">
+      <c r="G13" s="32"/>
+      <c r="H13" s="28">
         <f>SUM(H6:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="91" t="e">
+      <c r="I13" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="91" t="e">
+      <c r="J13" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:13" s="6" customFormat="1">
+      <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93" t="e">
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="91" t="e">
+      <c r="G14" s="89"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="91" t="e">
+      <c r="J14" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:13" s="6" customFormat="1">
+      <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="93" t="e">
+      <c r="D15" s="90"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="91" t="e">
+      <c r="G15" s="91"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="91" t="e">
+      <c r="J15" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:13" s="6" customFormat="1">
+      <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="118"/>
+      <c r="C16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93" t="e">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="91" t="e">
+      <c r="G16" s="91"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="91" t="e">
+      <c r="J16" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:11" s="6" customFormat="1">
+      <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93" t="e">
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="96"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="91" t="e">
+      <c r="G17" s="91"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="91" t="e">
+      <c r="J17" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:11" s="6" customFormat="1">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <f>SUM(D14:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <f>SUM(E14:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="93" t="e">
+      <c r="F18" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="30">
+      <c r="G18" s="91"/>
+      <c r="H18" s="28">
         <f>SUM(H14:H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="91" t="e">
+      <c r="I18" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="91" t="e">
+      <c r="J18" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:11" s="6" customFormat="1">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="93" t="e">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="91" t="e">
+      <c r="G19" s="91"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="91" t="e">
+      <c r="J19" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:11" s="6" customFormat="1">
+      <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="118"/>
+      <c r="C20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="93" t="e">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="91" t="e">
+      <c r="G20" s="91"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="91" t="e">
+      <c r="J20" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:11" s="6" customFormat="1">
+      <c r="A21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="93" t="e">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="91" t="e">
+      <c r="G21" s="91"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="91" t="e">
+      <c r="J21" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:11" s="6" customFormat="1">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="93" t="e">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="91" t="e">
+      <c r="G22" s="91"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="91" t="e">
+      <c r="J22" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:11" s="6" customFormat="1">
+      <c r="A23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
         <f>SUM(D19:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <f>SUM(E19:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="93" t="e">
+      <c r="F23" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="96"/>
-      <c r="H23" s="30">
+      <c r="G23" s="91"/>
+      <c r="H23" s="28">
         <f>SUM(H19:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="91" t="e">
+      <c r="I23" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="91" t="e">
+      <c r="J23" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:11" s="6" customFormat="1">
+      <c r="A24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="105"/>
+      <c r="C24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="93" t="e">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="91" t="e">
+      <c r="G24" s="91"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="91" t="e">
+      <c r="J24" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:11" s="6" customFormat="1">
+      <c r="A25" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
         <f>SUM(D26:D30)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <f>SUM(E26:E30)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="93" t="e">
+      <c r="F25" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="96"/>
-      <c r="H25" s="30">
+      <c r="G25" s="91"/>
+      <c r="H25" s="28">
         <f>SUM(H26:H30)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="91" t="e">
+      <c r="I25" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="91" t="e">
+      <c r="J25" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:11" s="6" customFormat="1">
+      <c r="A26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="93" t="e">
+      <c r="D26" s="28"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="96"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="91" t="e">
+      <c r="G26" s="91"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="91" t="e">
+      <c r="J26" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:11" s="6" customFormat="1">
+      <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="106"/>
+      <c r="C27" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="93" t="e">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="96"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="91" t="e">
+      <c r="G27" s="91"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="91" t="e">
+      <c r="J27" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:11" s="6" customFormat="1">
+      <c r="A28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="93" t="e">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="91" t="e">
+      <c r="G28" s="91"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="91" t="e">
+      <c r="J28" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:11" s="6" customFormat="1">
+      <c r="A29" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="38" t="s">
+      <c r="B29" s="106"/>
+      <c r="C29" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="93" t="e">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="91" t="e">
+      <c r="G29" s="91"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="91" t="e">
+      <c r="J29" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:11" s="6" customFormat="1">
+      <c r="A30" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="93" t="e">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="91" t="e">
+      <c r="G30" s="91"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="91" t="e">
+      <c r="J30" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:11" s="6" customFormat="1">
+      <c r="A31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="181"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="106"/>
+      <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="28">
         <f>SUM(D32:D36)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <f>SUM(E32:E36)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="93" t="e">
+      <c r="F31" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="96"/>
-      <c r="H31" s="30">
+      <c r="G31" s="91"/>
+      <c r="H31" s="28">
         <f>SUM(H32:H36)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="91" t="e">
+      <c r="I31" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="91" t="e">
+      <c r="J31" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:11" s="6" customFormat="1">
+      <c r="A32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="181"/>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="106"/>
+      <c r="C32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="93" t="e">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="91" t="e">
+      <c r="G32" s="91"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="91" t="e">
+      <c r="J32" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:12" s="6" customFormat="1">
+      <c r="A33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="106"/>
+      <c r="C33" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="93" t="e">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="96"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="91" t="e">
+      <c r="G33" s="91"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="91" t="e">
+      <c r="J33" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="6"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:12" s="6" customFormat="1">
+      <c r="A34" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="181"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="93" t="e">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="91" t="e">
+      <c r="G34" s="91"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="91" t="e">
+      <c r="J34" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="6"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:12" s="6" customFormat="1">
+      <c r="A35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="106"/>
+      <c r="C35" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="93" t="e">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="91" t="e">
+      <c r="G35" s="91"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="91" t="e">
+      <c r="J35" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="6"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:12" s="6" customFormat="1">
+      <c r="A36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="181"/>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="106"/>
+      <c r="C36" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="93" t="e">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="91" t="e">
+      <c r="G36" s="91"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="91" t="e">
+      <c r="J36" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="6"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" s="7" customFormat="1">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:12" s="6" customFormat="1">
+      <c r="A37" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="106"/>
+      <c r="C37" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="28">
         <f>SUM(D38:D42)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="93" t="e">
+      <c r="F37" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="96"/>
-      <c r="H37" s="30">
+      <c r="G37" s="91"/>
+      <c r="H37" s="28">
         <f>SUM(H38:H42)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="91" t="e">
+      <c r="I37" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="91" t="e">
+      <c r="J37" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="6"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:12" s="6" customFormat="1">
+      <c r="A38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="106"/>
+      <c r="C38" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="93" t="e">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="91" t="e">
+      <c r="G38" s="91"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="91" t="e">
+      <c r="J38" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:12" s="6" customFormat="1">
+      <c r="A39" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="106"/>
+      <c r="C39" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="93" t="e">
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="96"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="91" t="e">
+      <c r="G39" s="91"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="91" t="e">
+      <c r="J39" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="6"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:12" s="6" customFormat="1">
+      <c r="A40" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="181"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="106"/>
+      <c r="C40" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="93" t="e">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="96"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="91" t="e">
+      <c r="G40" s="91"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="91" t="e">
+      <c r="J40" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="6"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:12" s="6" customFormat="1">
+      <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="181"/>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="106"/>
+      <c r="C41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="98"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="93" t="e">
+      <c r="D41" s="93"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="96"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="91" t="e">
+      <c r="G41" s="91"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="91" t="e">
+      <c r="J41" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:12" s="6" customFormat="1">
+      <c r="A42" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="38" t="s">
+      <c r="B42" s="106"/>
+      <c r="C42" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="93" t="e">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="96"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="91" t="e">
+      <c r="G42" s="91"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="91" t="e">
+      <c r="J42" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="40"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="38"/>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:12" s="6" customFormat="1">
+      <c r="A43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="106"/>
+      <c r="C43" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="28">
         <f>SUM(D44:D48)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="28">
         <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="93" t="e">
+      <c r="F43" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="96"/>
-      <c r="H43" s="30">
+      <c r="G43" s="91"/>
+      <c r="H43" s="28">
         <f>SUM(H44:H48)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="91" t="e">
+      <c r="I43" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="91" t="e">
+      <c r="J43" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="41"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="39"/>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:12" s="6" customFormat="1">
+      <c r="A44" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="93" t="e">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="96"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="91" t="e">
+      <c r="G44" s="91"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="91" t="e">
+      <c r="J44" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="40"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="38"/>
     </row>
-    <row r="45" spans="1:12" s="7" customFormat="1">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:12" s="6" customFormat="1">
+      <c r="A45" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="38" t="s">
+      <c r="B45" s="106"/>
+      <c r="C45" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="93" t="e">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="96"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="91" t="e">
+      <c r="G45" s="91"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="91" t="e">
+      <c r="J45" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="6"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:12" s="6" customFormat="1">
+      <c r="A46" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="38" t="s">
+      <c r="B46" s="106"/>
+      <c r="C46" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="93" t="e">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="96"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="91" t="e">
+      <c r="G46" s="91"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="91" t="e">
+      <c r="J46" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="6"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" s="7" customFormat="1">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:12" s="6" customFormat="1">
+      <c r="A47" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="106"/>
+      <c r="C47" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="93" t="e">
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="96"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="91" t="e">
+      <c r="G47" s="91"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="91" t="e">
+      <c r="J47" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:12" s="6" customFormat="1">
+      <c r="A48" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="181"/>
-      <c r="C48" s="38" t="s">
+      <c r="B48" s="106"/>
+      <c r="C48" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="93" t="e">
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="96"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="91" t="e">
+      <c r="G48" s="91"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="91" t="e">
+      <c r="J48" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="18"/>
-      <c r="L48" s="6"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:11" s="7" customFormat="1">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:11" s="6" customFormat="1">
+      <c r="A49" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="181"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="106"/>
+      <c r="C49" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="28">
         <f>SUM(D50:D54)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="28">
         <f>SUM(E50:E54)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="93" t="e">
+      <c r="F49" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="30">
+      <c r="G49" s="91"/>
+      <c r="H49" s="28">
         <f>SUM(H50:H54)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="91" t="e">
+      <c r="I49" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="91" t="e">
+      <c r="J49" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="18"/>
+      <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" s="7" customFormat="1">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:11" s="6" customFormat="1">
+      <c r="A50" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="181"/>
-      <c r="C50" s="38" t="s">
+      <c r="B50" s="106"/>
+      <c r="C50" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="93" t="e">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="91" t="e">
+      <c r="G50" s="91"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="91" t="e">
+      <c r="J50" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="18"/>
+      <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:11" s="6" customFormat="1">
+      <c r="A51" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="181"/>
-      <c r="C51" s="38" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="93" t="e">
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="91" t="e">
+      <c r="G51" s="91"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="91" t="e">
+      <c r="J51" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="18"/>
+      <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" s="7" customFormat="1">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:11" s="6" customFormat="1">
+      <c r="A52" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="181"/>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="106"/>
+      <c r="C52" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="93" t="e">
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="96"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="91" t="e">
+      <c r="G52" s="91"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="91" t="e">
+      <c r="J52" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="18"/>
+      <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" s="7" customFormat="1">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:11" s="6" customFormat="1">
+      <c r="A53" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="181"/>
-      <c r="C53" s="38" t="s">
+      <c r="B53" s="106"/>
+      <c r="C53" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="93" t="e">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="96"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="91" t="e">
+      <c r="G53" s="91"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="91" t="e">
+      <c r="J53" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K53" s="18"/>
+      <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" s="7" customFormat="1">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:11" s="6" customFormat="1">
+      <c r="A54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="181"/>
-      <c r="C54" s="38" t="s">
+      <c r="B54" s="106"/>
+      <c r="C54" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="93" t="e">
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="96"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="91" t="e">
+      <c r="G54" s="91"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="91" t="e">
+      <c r="J54" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K54" s="18"/>
+      <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" s="7" customFormat="1">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:11" s="6" customFormat="1">
+      <c r="A55" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="181"/>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="106"/>
+      <c r="C55" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <f>SUM(D56:D60)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="93" t="e">
+      <c r="F55" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="96"/>
-      <c r="H55" s="30">
+      <c r="G55" s="91"/>
+      <c r="H55" s="28">
         <f>SUM(H56:H60)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="91" t="e">
+      <c r="I55" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="91" t="e">
+      <c r="J55" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K55" s="18"/>
+      <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11" s="7" customFormat="1">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:11" s="6" customFormat="1">
+      <c r="A56" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="181"/>
-      <c r="C56" s="38" t="s">
+      <c r="B56" s="106"/>
+      <c r="C56" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="93" t="e">
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G56" s="96"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="91" t="e">
+      <c r="G56" s="91"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="91" t="e">
+      <c r="J56" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K56" s="18"/>
+      <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:11" s="7" customFormat="1">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:11" s="6" customFormat="1">
+      <c r="A57" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="181"/>
-      <c r="C57" s="38" t="s">
+      <c r="B57" s="106"/>
+      <c r="C57" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="93" t="e">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G57" s="96"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="91" t="e">
+      <c r="G57" s="91"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="91" t="e">
+      <c r="J57" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K57" s="18"/>
+      <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:11" s="7" customFormat="1">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:11" s="6" customFormat="1">
+      <c r="A58" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="181"/>
-      <c r="C58" s="38" t="s">
+      <c r="B58" s="106"/>
+      <c r="C58" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="93" t="e">
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="96"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="91" t="e">
+      <c r="G58" s="91"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="91" t="e">
+      <c r="J58" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K58" s="18"/>
+      <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" s="7" customFormat="1">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:11" s="6" customFormat="1">
+      <c r="A59" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="181"/>
-      <c r="C59" s="38" t="s">
+      <c r="B59" s="106"/>
+      <c r="C59" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="93" t="e">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="96"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="91" t="e">
+      <c r="G59" s="91"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J59" s="91" t="e">
+      <c r="J59" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" s="18"/>
+      <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" s="7" customFormat="1">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:11" s="6" customFormat="1">
+      <c r="A60" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="181"/>
-      <c r="C60" s="38" t="s">
+      <c r="B60" s="106"/>
+      <c r="C60" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="93" t="e">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="91" t="e">
+      <c r="G60" s="91"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J60" s="91" t="e">
+      <c r="J60" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" s="18"/>
+      <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:11" s="7" customFormat="1">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:11" s="6" customFormat="1">
+      <c r="A61" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="181"/>
-      <c r="C61" s="32" t="s">
+      <c r="B61" s="106"/>
+      <c r="C61" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="28">
         <f>SUM(D62:D66)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="28">
         <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="93" t="e">
+      <c r="F61" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="96"/>
-      <c r="H61" s="30">
+      <c r="G61" s="91"/>
+      <c r="H61" s="28">
         <f>SUM(H62:H66)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="91" t="e">
+      <c r="I61" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J61" s="91" t="e">
+      <c r="J61" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K61" s="18"/>
+      <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:11" s="7" customFormat="1">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:11" s="6" customFormat="1">
+      <c r="A62" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="181"/>
-      <c r="C62" s="38" t="s">
+      <c r="B62" s="106"/>
+      <c r="C62" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="93" t="e">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="96"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="91" t="e">
+      <c r="G62" s="91"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J62" s="91" t="e">
+      <c r="J62" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K62" s="18"/>
+      <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:11" s="7" customFormat="1">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:11" s="6" customFormat="1">
+      <c r="A63" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="181"/>
-      <c r="C63" s="38" t="s">
+      <c r="B63" s="106"/>
+      <c r="C63" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="93" t="e">
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="96"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="91" t="e">
+      <c r="G63" s="91"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J63" s="91" t="e">
+      <c r="J63" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K63" s="18"/>
+      <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" s="7" customFormat="1">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:11" s="6" customFormat="1">
+      <c r="A64" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="181"/>
-      <c r="C64" s="38" t="s">
+      <c r="B64" s="106"/>
+      <c r="C64" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="93" t="e">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="96"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="91" t="e">
+      <c r="G64" s="91"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J64" s="91" t="e">
+      <c r="J64" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K64" s="18"/>
+      <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="181"/>
-      <c r="C65" s="38" t="s">
+      <c r="B65" s="106"/>
+      <c r="C65" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="93" t="e">
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="96"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="91" t="e">
+      <c r="G65" s="91"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J65" s="91" t="e">
+      <c r="J65" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K65" s="18"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="181"/>
-      <c r="C66" s="38" t="s">
+      <c r="B66" s="106"/>
+      <c r="C66" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="93" t="e">
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="96"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="91" t="e">
+      <c r="G66" s="91"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="86" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J66" s="91" t="e">
+      <c r="J66" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="174" t="s">
+      <c r="B67" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="175"/>
-      <c r="D67" s="30">
+      <c r="C67" s="100"/>
+      <c r="D67" s="28">
         <f>D61+D55+D23</f>
         <v>0</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="28">
         <f>E61+E55+E23</f>
         <v>0</v>
       </c>
-      <c r="F67" s="93" t="e">
+      <c r="F67" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="100"/>
-      <c r="H67" s="30">
+      <c r="G67" s="95"/>
+      <c r="H67" s="28">
         <f>H61+H55+H23</f>
         <v>0</v>
       </c>
-      <c r="I67" s="101" t="e">
+      <c r="I67" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J67" s="91" t="e">
+      <c r="J67" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="175"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="93" t="e">
+      <c r="C68" s="100"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="100"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="101" t="e">
+      <c r="G68" s="95"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="96" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J68" s="91" t="e">
+      <c r="J68" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="174" t="s">
+      <c r="B69" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="175"/>
-      <c r="D69" s="30">
+      <c r="C69" s="100"/>
+      <c r="D69" s="28">
         <f>$D$25+$D$31+$D$37+$D$43+$D$49</f>
         <v>0</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>$E$25+$E$31+$E$37+$E$43+$E$49</f>
         <v>0</v>
       </c>
-      <c r="F69" s="93" t="e">
+      <c r="F69" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="100"/>
-      <c r="H69" s="30">
+      <c r="G69" s="95"/>
+      <c r="H69" s="28">
         <f>$H$25+$H$31+$H$37+$H$43+$H$49</f>
         <v>0</v>
       </c>
-      <c r="I69" s="101" t="e">
+      <c r="I69" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J69" s="91" t="e">
+      <c r="J69" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="174" t="s">
+      <c r="B70" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="175"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="183"/>
-      <c r="F70" s="183"/>
-      <c r="G70" s="183"/>
-      <c r="H70" s="183"/>
-      <c r="I70" s="183"/>
-      <c r="J70" s="184"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="109"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="174" t="s">
+      <c r="B71" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="175"/>
-      <c r="D71" s="182"/>
-      <c r="E71" s="183"/>
-      <c r="F71" s="183"/>
-      <c r="G71" s="183"/>
-      <c r="H71" s="183"/>
-      <c r="I71" s="183"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="174" t="s">
+      <c r="B72" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="175"/>
-      <c r="D72" s="176" t="e">
+      <c r="C72" s="100"/>
+      <c r="D72" s="101" t="e">
         <f>D70/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="177"/>
-      <c r="F72" s="177"/>
-      <c r="G72" s="177"/>
-      <c r="H72" s="177"/>
-      <c r="I72" s="177"/>
-      <c r="J72" s="178"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="174" t="s">
+      <c r="B73" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="175"/>
-      <c r="D73" s="176" t="e">
+      <c r="C73" s="100"/>
+      <c r="D73" s="101" t="e">
         <f>D71/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="177"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="177"/>
-      <c r="H73" s="177"/>
-      <c r="I73" s="177"/>
-      <c r="J73" s="178"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="174" t="s">
+      <c r="B74" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="175"/>
-      <c r="D74" s="176" t="e">
+      <c r="C74" s="100"/>
+      <c r="D74" s="101" t="e">
         <f>(D70+D71)/H67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="177"/>
-      <c r="F74" s="177"/>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="177"/>
-      <c r="J74" s="178"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="174" t="s">
+      <c r="B75" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="175"/>
-      <c r="D75" s="176" t="e">
+      <c r="C75" s="100"/>
+      <c r="D75" s="101" t="e">
         <f>D70/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="177"/>
-      <c r="J75" s="178"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="174" t="s">
+      <c r="B76" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="175"/>
-      <c r="D76" s="176" t="e">
+      <c r="C76" s="100"/>
+      <c r="D76" s="101" t="e">
         <f>D71/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="177"/>
-      <c r="J76" s="178"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="174" t="s">
+      <c r="B77" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="175"/>
-      <c r="D77" s="176" t="e">
+      <c r="C77" s="100"/>
+      <c r="D77" s="101" t="e">
         <f>(F70+F71)/H69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="177"/>
-      <c r="F77" s="177"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="177"/>
-      <c r="I77" s="177"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="103"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="47"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
     </row>
     <row r="81" spans="1:25" ht="16" thickBot="1">
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
     </row>
     <row r="82" spans="1:25" ht="29">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="55" t="s">
+      <c r="E82" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="55" t="s">
+      <c r="F82" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H82" s="55" t="s">
+      <c r="H82" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I82" s="56" t="s">
+      <c r="I82" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="57" t="s">
+      <c r="J82" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="K82" s="103" t="s">
+      <c r="K82" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="L82" s="58"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
+      <c r="L82" s="55"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
     </row>
     <row r="83" spans="1:25" ht="17">
-      <c r="A83" s="59">
+      <c r="A83" s="56">
         <v>1</v>
       </c>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="61">
-        <v>0</v>
-      </c>
-      <c r="D83" s="61">
+      <c r="C83" s="58">
+        <v>0</v>
+      </c>
+      <c r="D83" s="58">
         <f>H32*0.5%</f>
         <v>0</v>
       </c>
-      <c r="E83" s="61">
+      <c r="E83" s="58">
         <f>H38*0.5%</f>
         <v>0</v>
       </c>
-      <c r="F83" s="61">
+      <c r="F83" s="58">
         <f>H44*0.5%</f>
         <v>0</v>
       </c>
-      <c r="G83" s="61">
+      <c r="G83" s="58">
         <f>H50*0.5%</f>
         <v>0</v>
       </c>
-      <c r="H83" s="62">
-        <v>0</v>
-      </c>
-      <c r="I83" s="63">
-        <v>0</v>
-      </c>
-      <c r="J83" s="69">
+      <c r="H83" s="59">
+        <v>0</v>
+      </c>
+      <c r="I83" s="60">
+        <v>0</v>
+      </c>
+      <c r="J83" s="66">
         <f>SUM(C83:I83)</f>
         <v>0</v>
       </c>
-      <c r="K83" s="64">
-        <v>0</v>
-      </c>
-      <c r="L83" s="64">
-        <v>0</v>
-      </c>
-      <c r="M83" s="65"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
+      <c r="K83" s="61">
+        <v>0</v>
+      </c>
+      <c r="L83" s="61">
+        <v>0</v>
+      </c>
+      <c r="M83" s="62"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
     </row>
     <row r="84" spans="1:25">
-      <c r="A84" s="59">
+      <c r="A84" s="56">
         <v>2</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="67">
-        <v>0</v>
-      </c>
-      <c r="D84" s="61">
+      <c r="C84" s="64">
+        <v>0</v>
+      </c>
+      <c r="D84" s="58">
         <f>H33*2%</f>
         <v>0</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="58">
         <f>H39*2%</f>
         <v>0</v>
       </c>
-      <c r="F84" s="61">
+      <c r="F84" s="58">
         <f>H45*2%</f>
         <v>0</v>
       </c>
-      <c r="G84" s="61">
+      <c r="G84" s="58">
         <f>H51*2%</f>
         <v>0</v>
       </c>
-      <c r="H84" s="62">
-        <v>0</v>
-      </c>
-      <c r="I84" s="68">
-        <v>0</v>
-      </c>
-      <c r="J84" s="69">
+      <c r="H84" s="59">
+        <v>0</v>
+      </c>
+      <c r="I84" s="65">
+        <v>0</v>
+      </c>
+      <c r="J84" s="66">
         <f t="shared" ref="J84:J88" si="4">SUM(C84:I84)</f>
         <v>0</v>
       </c>
-      <c r="K84" s="70">
-        <v>0</v>
-      </c>
-      <c r="L84" s="70">
-        <v>0</v>
-      </c>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
+      <c r="K84" s="61">
+        <v>0</v>
+      </c>
+      <c r="L84" s="61">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="59">
+      <c r="A85" s="56">
         <v>3</v>
       </c>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="67">
-        <v>0</v>
-      </c>
-      <c r="D85" s="61">
+      <c r="C85" s="64">
+        <v>0</v>
+      </c>
+      <c r="D85" s="58">
         <f>H34*10%</f>
         <v>0</v>
       </c>
-      <c r="E85" s="61">
+      <c r="E85" s="58">
         <f t="shared" ref="E85" si="5">H40*10%</f>
         <v>0</v>
       </c>
-      <c r="F85" s="61">
+      <c r="F85" s="58">
         <f>H46*10%</f>
         <v>0</v>
       </c>
-      <c r="G85" s="61">
+      <c r="G85" s="58">
         <f>H52*10%</f>
         <v>0</v>
       </c>
-      <c r="H85" s="62">
-        <v>0</v>
-      </c>
-      <c r="I85" s="68">
-        <v>0</v>
-      </c>
-      <c r="J85" s="69">
+      <c r="H85" s="59">
+        <v>0</v>
+      </c>
+      <c r="I85" s="65">
+        <v>0</v>
+      </c>
+      <c r="J85" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K85" s="70">
-        <v>0</v>
-      </c>
-      <c r="L85" s="70">
-        <v>0</v>
-      </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
+      <c r="K85" s="61">
+        <v>0</v>
+      </c>
+      <c r="L85" s="61">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="59">
+      <c r="A86" s="56">
         <v>4</v>
       </c>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="61">
-        <v>0</v>
-      </c>
-      <c r="D86" s="61">
+      <c r="C86" s="58">
+        <v>0</v>
+      </c>
+      <c r="D86" s="58">
         <f>H35*50%</f>
         <v>0</v>
       </c>
-      <c r="E86" s="61">
+      <c r="E86" s="58">
         <f>H41*50%</f>
         <v>0</v>
       </c>
-      <c r="F86" s="61">
+      <c r="F86" s="58">
         <f>H47*50%</f>
         <v>0</v>
       </c>
-      <c r="G86" s="61">
+      <c r="G86" s="58">
         <f>H53*50%</f>
         <v>0</v>
       </c>
-      <c r="H86" s="62">
-        <v>0</v>
-      </c>
-      <c r="I86" s="68">
-        <v>0</v>
-      </c>
-      <c r="J86" s="69">
+      <c r="H86" s="59">
+        <v>0</v>
+      </c>
+      <c r="I86" s="65">
+        <v>0</v>
+      </c>
+      <c r="J86" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K86" s="70">
-        <v>0</v>
-      </c>
-      <c r="L86" s="70">
-        <v>0</v>
-      </c>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
+      <c r="K86" s="61">
+        <v>0</v>
+      </c>
+      <c r="L86" s="61">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="59">
+      <c r="A87" s="56">
         <v>5</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="61">
-        <v>0</v>
-      </c>
-      <c r="D87" s="61">
+      <c r="C87" s="58">
+        <v>0</v>
+      </c>
+      <c r="D87" s="58">
         <f>H36*100%</f>
         <v>0</v>
       </c>
-      <c r="E87" s="61">
+      <c r="E87" s="58">
         <f>H42*100%</f>
         <v>0</v>
       </c>
-      <c r="F87" s="61">
+      <c r="F87" s="58">
         <f>H48*100%</f>
         <v>0</v>
       </c>
-      <c r="G87" s="61">
+      <c r="G87" s="58">
         <f>H54*100%</f>
         <v>0</v>
       </c>
-      <c r="H87" s="62">
-        <v>0</v>
-      </c>
-      <c r="I87" s="68">
-        <v>0</v>
-      </c>
-      <c r="J87" s="69">
+      <c r="H87" s="59">
+        <v>0</v>
+      </c>
+      <c r="I87" s="65">
+        <v>0</v>
+      </c>
+      <c r="J87" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K87" s="70">
-        <v>0</v>
-      </c>
-      <c r="L87" s="70">
-        <v>0</v>
-      </c>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
+      <c r="K87" s="61">
+        <v>0</v>
+      </c>
+      <c r="L87" s="61">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
     </row>
     <row r="88" spans="1:25" ht="16" thickBot="1">
-      <c r="A88" s="71">
+      <c r="A88" s="67">
         <v>6</v>
       </c>
-      <c r="B88" s="72" t="s">
+      <c r="B88" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="73">
+      <c r="C88" s="69">
         <f>SUM(C83:C87)</f>
         <v>0</v>
       </c>
-      <c r="D88" s="73">
+      <c r="D88" s="69">
         <f>SUM(D83:D87)</f>
         <v>0</v>
       </c>
-      <c r="E88" s="73">
+      <c r="E88" s="69">
         <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
-      <c r="F88" s="73">
+      <c r="F88" s="69">
         <f t="shared" ref="F88:I88" si="6">SUM(F83:F87)</f>
         <v>0</v>
       </c>
-      <c r="G88" s="73">
+      <c r="G88" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H88" s="73">
+      <c r="H88" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I88" s="73">
+      <c r="I88" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J88" s="102">
+      <c r="J88" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K88" s="70">
-        <v>0</v>
-      </c>
-      <c r="L88" s="70">
-        <v>0</v>
-      </c>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
+      <c r="K88" s="61">
+        <v>0</v>
+      </c>
+      <c r="L88" s="61">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
     </row>
     <row r="89" spans="1:25" ht="17">
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="70">
-        <v>0</v>
-      </c>
-      <c r="K89" s="70">
-        <v>0</v>
-      </c>
-      <c r="L89" s="75" t="s">
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="61">
+        <v>0</v>
+      </c>
+      <c r="K89" s="61">
+        <v>0</v>
+      </c>
+      <c r="L89" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="M89" s="76"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
+      <c r="M89" s="72"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
     </row>
     <row r="90" spans="1:25">
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="78"/>
-      <c r="L90" s="70"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="61"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:25" ht="17">
-      <c r="K91" s="70">
-        <v>0</v>
-      </c>
-      <c r="L91" s="79" t="s">
+      <c r="K91" s="61">
+        <v>0</v>
+      </c>
+      <c r="L91" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
     </row>
-    <row r="92" spans="1:25" s="84" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A92" s="80"/>
-      <c r="B92" s="81" t="s">
+    <row r="92" spans="1:25" s="80" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A92" s="76"/>
+      <c r="B92" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83" t="s">
+      <c r="C92" s="78"/>
+      <c r="D92" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="H92" s="81" t="s">
+      <c r="H92" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="K92" s="85"/>
-      <c r="N92" s="86"/>
-      <c r="O92" s="83"/>
-      <c r="Q92" s="87"/>
-      <c r="R92" s="88"/>
-      <c r="T92" s="89"/>
-      <c r="W92" s="90"/>
-      <c r="Y92" s="81"/>
+      <c r="K92" s="81"/>
+      <c r="N92" s="78"/>
+      <c r="O92" s="79"/>
+      <c r="Q92" s="82"/>
+      <c r="R92" s="83"/>
+      <c r="T92" s="84"/>
+      <c r="W92" s="85"/>
+      <c r="Y92" s="77"/>
     </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="6" t="s">
+    <row r="116" spans="14:14" s="6" customFormat="1">
+      <c r="N116" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:J77"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:J73"/>
     <mergeCell ref="B23:B24"/>
@@ -10378,567 +9727,18 @@
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:J72"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:J77"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Y22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="2.90625" style="104" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="104" customWidth="1"/>
-    <col min="3" max="3" width="9" style="104" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="104" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" style="104" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="104" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="104" customWidth="1"/>
-    <col min="8" max="8" width="24.90625" style="104" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" style="104" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="104" customWidth="1"/>
-    <col min="11" max="12" width="12.6328125" style="104" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" style="104" customWidth="1"/>
-    <col min="14" max="15" width="17.36328125" style="104" customWidth="1"/>
-    <col min="16" max="17" width="15.6328125" style="104" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" style="104" customWidth="1"/>
-    <col min="19" max="19" width="12.90625" style="104" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="104"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24">
-      <c r="B1" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="2:24">
-      <c r="B2" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="148">
-        <v>201909</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>190</v>
-      </c>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="R4" s="146"/>
-      <c r="S4" s="145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="C5" s="144"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="145"/>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="C6" s="144"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-    </row>
-    <row r="7" spans="2:24" s="142" customFormat="1" ht="51">
-      <c r="B7" s="143" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="143" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="143" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="143" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="143" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="143" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" s="143" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="143" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="L7" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="143" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" s="143" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="P7" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="143" t="s">
-        <v>171</v>
-      </c>
-      <c r="R7" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="S7" s="143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" s="139" customFormat="1" ht="15.5">
-      <c r="B8" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="140"/>
-    </row>
-    <row r="9" spans="2:24" s="139" customFormat="1" ht="15.5">
-      <c r="B9" s="130" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="140"/>
-    </row>
-    <row r="10" spans="2:24" s="126" customFormat="1" ht="15.5">
-      <c r="B10" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="137"/>
-    </row>
-    <row r="11" spans="2:24" s="126" customFormat="1" ht="15.5">
-      <c r="B11" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="136"/>
-    </row>
-    <row r="12" spans="2:24" s="126" customFormat="1">
-      <c r="B12" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="135" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" s="126" customFormat="1" ht="15.5">
-      <c r="B13" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-    </row>
-    <row r="14" spans="2:24" s="123" customFormat="1">
-      <c r="F14" s="125">
-        <f t="shared" ref="F14:Q14" si="0">SUM(F8:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="124"/>
-    </row>
-    <row r="15" spans="2:24">
-      <c r="B15" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-    </row>
-    <row r="17" spans="1:25" ht="35.25" customHeight="1">
-      <c r="B17" s="185" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" customHeight="1">
-      <c r="B18" s="185" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="B19" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="B20" s="104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="105" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="105" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="111"/>
-      <c r="G22" s="110"/>
-      <c r="I22" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="112"/>
-      <c r="K22" s="113"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="108"/>
-      <c r="T22" s="107"/>
-      <c r="W22" s="106"/>
-      <c r="Y22" s="105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B17:S17"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="R6:S6"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"標楷體,標準"&amp;14製表單位：放款管理課&amp;C第 &amp;P 頁，共 &amp;N 頁</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>